--- a/Ifood-Teste-7.xlsx
+++ b/Ifood-Teste-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="443">
   <si>
     <t>Tweets</t>
   </si>
@@ -25,17 +25,326 @@
     <t>Categoria atribuida automaticamente</t>
   </si>
   <si>
-    <t>ifood salvou com esse cupom
-comprei comida p assistir o jogo do barça logo mais hehehe</t>
-  </si>
-  <si>
-    <t>olha eu dnv 1 da manhã pedindo chocolate pelo ifood, sério sem condições</t>
-  </si>
-  <si>
-    <t>chita fumadona, cismou de pedir paçoca no ifood kkkkkkkk, n aguento</t>
-  </si>
-  <si>
-    <t>@_mrbungle @monark isso se o jogo não se mostra apenas um simulador de ifood/rappi/uber eats, com uma história confusa...</t>
+    <t>esses cupons do ifood não valem nada</t>
+  </si>
+  <si>
+    <t>ganhei 15 reais de desconto no ifood aaaaaa</t>
+  </si>
+  <si>
+    <t>auge do meu dia: almocei gastando a bagatela de 3 reais, obrigada @ifood sei que tu me sondas</t>
+  </si>
+  <si>
+    <t>vou almoçar por 3 reais obrigado ifood pelo cupom</t>
+  </si>
+  <si>
+    <t>@portilhocrvg @ifood ela pode kkkk e se acabar eu trabalho mais e mais kkkkk</t>
+  </si>
+  <si>
+    <t>@ra_ra @ifood e ai @ifood ? pra mandar mensagem engraçadinha o social é um leão, pra responder o b.o é uma ovelha é???</t>
+  </si>
+  <si>
+    <t>@2bmck eu pedi uma quentinha no ifood ontem p chegar hj na hora do almoço, o cara veio entregar fiquei ?????</t>
+  </si>
+  <si>
+    <t>@xsaintdevil @ifood na tora mano</t>
+  </si>
+  <si>
+    <t>@ifood salvou meu almoço, te amo</t>
+  </si>
+  <si>
+    <t>acabei de pedir um frango grelhado com salada por apenas 1 real, ifood eu te amo</t>
+  </si>
+  <si>
+    <t>acabei de ver um entregador do ifood saindo no grau, quase que a caixa de comida arrasta no chão akskakksks</t>
+  </si>
+  <si>
+    <t>cara é tão difícil usar cupom do ifood q ele é praticamente inútil</t>
+  </si>
+  <si>
+    <t>ifood salvou meu almoço hj 🙌</t>
+  </si>
+  <si>
+    <t>@helenaluz___ @pornfood18 amiga, pede um ifood kkk essas horas deve estar aberto neam 🌚</t>
+  </si>
+  <si>
+    <t>pedi um ifood pq esqueci de tirar a carne do congelador novamente</t>
+  </si>
+  <si>
+    <t>ifood cadê o meu liiiiiiaaaaanchiiii???</t>
+  </si>
+  <si>
+    <t>eu e a mãe pedimos um ifood pra comer. ❤️</t>
+  </si>
+  <si>
+    <t>rt @4h47_: eu me tornei quem eu mais temia... 
+a que gasta o dinheiro todo c ifood</t>
+  </si>
+  <si>
+    <t>na moral pensando seriamente em desinstalar o ifood, não tá dando não filho. só prejuízo</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay 
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem!</t>
+  </si>
+  <si>
+    <t>@haltdawg tentou, eles deram a justificativa que faliram por conta de ifood e rappi sendo que tipo, com ctz não haushshsbs</t>
+  </si>
+  <si>
+    <t>vou ter que viver de ifood, não dá pra sair nesse calor</t>
+  </si>
+  <si>
+    <t>amém cupom de 15 reais, nunca mais reclamo do ifood</t>
+  </si>
+  <si>
+    <t>@juziuzi @ifood o bom dessa promo do ifood eh ver cedinho.. comprei strogonoff por 10,00 umas 10h</t>
+  </si>
+  <si>
+    <t>vou pedir um ifood quero nem ver meu cartao mes que vem</t>
+  </si>
+  <si>
+    <t>rt @caarolkoene: cupom do ifood de 15 reais essas horas é muita tentação</t>
+  </si>
+  <si>
+    <t>ifood é o capeta dos pobres</t>
+  </si>
+  <si>
+    <t>@adrualdo é um grande problema esse livro, digo, uma cozinha numa livraria? parece uma infinidade de possíveis desastres... morando sozinha numa livraria de sp, eu pediria ifood pra diminuir as chances de uma catástrofe literária kkk</t>
+  </si>
+  <si>
+    <t>ifood vai patrocinar o almoço no mc donalds, meu momento chegou bctaaaa</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete. 
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem!</t>
+  </si>
+  <si>
+    <t>felicidade do dia: minha corrida no uber deu 10 centavos e meu almoço no ifood 2,00</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood mano eu já passei mto ódio com isso de tirar o telefone, enchi o saco do ifood até eles devolverem meu dinheiro</t>
+  </si>
+  <si>
+    <t>pedir comida no @ifood com cupom de desconto é um caminho sem volta.</t>
+  </si>
+  <si>
+    <t>oi @ifood cadê meu cupom to c fome</t>
+  </si>
+  <si>
+    <t>hoje tomara que o ifood das pankecas fique  fechado ,ubereats tb rappi trave hoje</t>
+  </si>
+  <si>
+    <t>pedir comida no ifood é bom, mas fazer almoço em casa saudável com o nosso tempero é melhor ainda.</t>
+  </si>
+  <si>
+    <t>e o entregador do ifood que veio aqui com a camisa do flamengo.
+eu da minha sala comecei a cantar o hino e mostrar minha mochila pra ele.
+parceirasso já.</t>
+  </si>
+  <si>
+    <t>@ibrvhimis @ifood ksjsksjsj eh pala@memo imagina minha raiva vei. c marca o rango por um tempasso quando ele chega nao vem o refri</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/nlwxb2z4kp</t>
+  </si>
+  <si>
+    <t>@ifood @borntoetc e a minha dm @ifood ???</t>
+  </si>
+  <si>
+    <t>obrigado ifood por me permitir almoçar uma marmita chinesa por 2 reais</t>
+  </si>
+  <si>
+    <t>@ifood @milfalacoes responde @ifood não se faça de bobo</t>
+  </si>
+  <si>
+    <t>@luc4sandrey @ifood andrey nove hrs da manha?????</t>
+  </si>
+  <si>
+    <t>queria pedir açaí mas o ifood não abre por nadaaa 😤</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem!</t>
+  </si>
+  <si>
+    <t>almoço + suco del valle no la mole, por 13,50 é pra glorificar de pé!
+eu amo os cupons do @ifood</t>
+  </si>
+  <si>
+    <t>estou prestes a pagar 21 reais num mexido!!! o ifood está acabando com a minha vida https://t.co/ubg9zuxdfp</t>
+  </si>
+  <si>
+    <t>almoço por 4 reais obrigado ifood 🙏🙏🙏🙏🙏🙏🙏🙏</t>
+  </si>
+  <si>
+    <t>cupom do ifood de 15 reais essas horas é muita tentação</t>
+  </si>
+  <si>
+    <t>eu amo tanto receber cupom, pedi um almoço por 5 reais no ifood e minha carteira tá tão feliz quanto meu buchinho chei vai ficar</t>
+  </si>
+  <si>
+    <t>ifood e rappi compraram o youtube não é possível</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? lara e nós do #ifood vamos te ajudar! insira o cupom q47157la9r e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/335o6bdews</t>
+  </si>
+  <si>
+    <t>almoçando com refri + chocolate por apenas $3 obg ifood pelos mimos 🙏🏽</t>
+  </si>
+  <si>
+    <t>será q o rappi ifood ou ubereats, não querem me mandar um cupom de sei lá uns 50 reais</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/wynkzhz4ij</t>
+  </si>
+  <si>
+    <t>só queria um desconto no @ifood visto que sempre uso e nunca ganho nada que relação é essa</t>
+  </si>
+  <si>
+    <t>@octaviasbutler @ifood eh um negócio aí de loop
+só abri o app de manhã e tava lá, aí agendei a entrega pra agora</t>
+  </si>
+  <si>
+    <t>to querendo almoçar mas o ifood não tá aceitando meu pedido 🤷🏻‍♂️</t>
+  </si>
+  <si>
+    <t>rt @juziuzi: serio que vc chama isso de almoço @ifood?? https://t.co/dg8910gwps</t>
+  </si>
+  <si>
+    <t>@mayarapolcani n tem ifood nos eua 😭😭 mas obg mana</t>
+  </si>
+  <si>
+    <t>alo @ifood eu quero meu dinheiro de volta...</t>
+  </si>
+  <si>
+    <t>rt @igortmilhos: ifood e rappi compraram o youtube não é possível</t>
+  </si>
+  <si>
+    <t>@ifood @jeixca a pergunta deveria ser ''você já morreu de fome, jéssica?''</t>
+  </si>
+  <si>
+    <t>vou ficar mais atento nesses cupons do ifood paguei 2,90 em um açaí de 18 conto, incluindo a entrega</t>
+  </si>
+  <si>
+    <t>que tipo de sacrifício humano eu preciso executar pra pedir meu almoço, @ifood ? https://t.co/3ara9d3l7d</t>
+  </si>
+  <si>
+    <t>alguém já pediu essa marmita loop  pelo ifood??? to sem coragem</t>
+  </si>
+  <si>
+    <t>eu só queria um cupom do @ifood pro almoço, mas já faz dias que não recebo. triste realidade.</t>
+  </si>
+  <si>
+    <t>pedi um almoço por 2 reais no ifood, nem queria</t>
+  </si>
+  <si>
+    <t>quase comprando algo pelo ifood</t>
+  </si>
+  <si>
+    <t>subway 30cm de steak churrasco por 14 pila no ifood e eu sem dinheiro https://t.co/s3jxvmyake</t>
+  </si>
+  <si>
+    <t>mano vsf antes eu pedia comida no ifood dava 12 reais ai eu usava o cupom de 10 pgava so 2 agora essa merda ta com frescura de pedido minimo??? q porra eh essa</t>
+  </si>
+  <si>
+    <t>rt @marcusvisn: ifood sem cupom: r$4,00 a taxa de entrega 
+vem com piadinha ‘oi tem cu...rsrsrs...pom de 10 reais pra você’
+taxa de entre…</t>
+  </si>
+  <si>
+    <t>@0markness @hydratedgiusti @ifood o nosso tá zeradoooooo porra!</t>
+  </si>
+  <si>
+    <t>rt @alisonpinto_: pedi uma coisinha no ifood e o, os motoboy são muito pelo corre certo, chovendo pra crl eles no corre.... peguei meu rang…</t>
+  </si>
+  <si>
+    <t>cupom de desconto do ifood https://t.co/mdrtxguekb</t>
+  </si>
+  <si>
+    <t>acordar com um cupom de desconto do ifood é pedir p ser feliz o resto do dia</t>
+  </si>
+  <si>
+    <t>@ifood pelo amor de deus o entregador do meu loop tá a uma hora parado em frente o restaurante! eu tô desfalecendo de fome ifood.</t>
+  </si>
+  <si>
+    <t>alguém manda ifood aqui na loja ? pode ser sushi, to morrendo de fome</t>
+  </si>
+  <si>
+    <t>vou desinstalar o ifood ele ainda não entendeu que estou de dieta e ignorando a existência dele</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/xagwt9l37a</t>
+  </si>
+  <si>
+    <t>a melhor invenção do @ifood foi o loop. comidinha gostosa e baraaata!</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/62dsxrimwc</t>
+  </si>
+  <si>
+    <t>hoje eu só almoço se o @ifood me liberar um cupom, pq a grana evaporou com este calor de 30ºc</t>
+  </si>
+  <si>
+    <t>@_juliasarahfr no ifood tem bastante na hora do almoço ju</t>
+  </si>
+  <si>
+    <t>@biankro_ @ifood qual é?</t>
+  </si>
+  <si>
+    <t>pedi um rango no ifood e o app disse que foi entregue mas não foi kkkkkkkk qq eu faço</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -46,16 +355,845 @@
 picpay 
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/gb2okik5bp</t>
-  </si>
-  <si>
-    <t>rt @lu4nam1: to viciada em pedir comida pelo ifood quero nem ver a fatura do cartão</t>
-  </si>
-  <si>
-    <t>ifood me deu cupom de 15 reais, pensando aqui o que eu vou comer com esse cuponzinho</t>
-  </si>
-  <si>
-    <t>alguém manda um ifood aqui???</t>
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/8pcfwsvm7x</t>
+  </si>
+  <si>
+    <t>pedi logo um ifood pra mim e pro jr</t>
+  </si>
+  <si>
+    <t>sdds qndo o ifood mandava cupom p restaurantes q eu qria</t>
+  </si>
+  <si>
+    <t>@rafaellcf é o cupom que o ifood liberou carai</t>
+  </si>
+  <si>
+    <t>obrigada ifood por ouvir minhas preces e mandar cupom https://t.co/k0pxdrfwvj</t>
+  </si>
+  <si>
+    <t>"tinder lanches"
+até o ifood tá me dando indireta.</t>
+  </si>
+  <si>
+    <t>paguei uma marmita pelo ifood 10 conto e n cobra entrega, amém</t>
+  </si>
+  <si>
+    <t>eu esperando meu almoço que comprei no ifood loop por 2,99 https://t.co/vy4di8ovsc</t>
+  </si>
+  <si>
+    <t>mais um dia mais um loop do ifood</t>
+  </si>
+  <si>
+    <t>não vejo a hora do ifood me patrocinar tbm, fé 🙏😂</t>
+  </si>
+  <si>
+    <t>ganhei desconto de 15 reias no ifood e pedi um marmitex que vem com refri e vou pagar o total de 3 reias kkkkkk</t>
+  </si>
+  <si>
+    <t>eu so queria cupom ifood hj</t>
+  </si>
+  <si>
+    <t>pedi um lanche no ifood pq eu me nego ir nesse sol almoçar</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood dsclp mas ri alto do "minha comida ta esfriando!!"</t>
+  </si>
+  <si>
+    <t>e mais uma vez falindo por causa do ifood</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? thamy e nós do #ifood vamos te ajudar! insira o cupom 7wneg6y934 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/edvgc24mry</t>
+  </si>
+  <si>
+    <t>obg @ifood pelos mimos em forma de cupom https://t.co/8n5igxdqpx</t>
+  </si>
+  <si>
+    <t>só queria um cupom do @ifood agora</t>
+  </si>
+  <si>
+    <t>@biajustin666 vê no ifood se não tem entrega</t>
+  </si>
+  <si>
+    <t>1 hr de atraso no @ifood ja virou rotina pra mim, nunca mais uso</t>
+  </si>
+  <si>
+    <t>@mssmarvelx rappi na primeira comida grátis mas ifood eu gosto mais</t>
+  </si>
+  <si>
+    <t>@pontofrio o povo acha que o pin é @ifood, só pede cupom. feliz aniversário, pin!!! felicidades. 🤣</t>
+  </si>
+  <si>
+    <t>melhor coisa é olhar e escolher o almoço pelo ifood em são paulo.</t>
+  </si>
+  <si>
+    <t>🍔🍟 #ifood | bateu aquela fome?
+🏷️ use o código » y4uyud49fq
+💵 ganhe r$10 de desconto na sua primeira compra pelo app.
+▼ app: https://t.co/jk3yh3iyp7
+🔁 compartilhe https://t.co/gpluh7bqk8</t>
+  </si>
+  <si>
+    <t>até o ifood sabe que o meu dia tá corrido https://t.co/lszgwpac2l</t>
+  </si>
+  <si>
+    <t>o ifood me empoderou com cupom pra eu almoçar um subwayzão quando ninguém ao menos tentou 😔🙏🏻</t>
+  </si>
+  <si>
+    <t>a porra do meu ifood não chega</t>
+  </si>
+  <si>
+    <t>irritada com o ifood</t>
+  </si>
+  <si>
+    <t>previsão de entrega: 13h 
+restaurante: preparando o pedido 
+poxa @ifood</t>
+  </si>
+  <si>
+    <t>@_flpdias o ifood decidiu me dar um cupom de 15 reais, o meu pedido deu 17 sem taxa de entrega 🙏❤️</t>
+  </si>
+  <si>
+    <t>esses cupons de 15 reais do @ifood é a melhor coisa da vida</t>
+  </si>
+  <si>
+    <t>alo @ifood manda cupom</t>
+  </si>
+  <si>
+    <t>nunca vou entender esse lixo do @ifood que faz o cupom pra primeira compra dai alguem te disponibiliza ele e nao pega https://t.co/fgnssfvyp9</t>
+  </si>
+  <si>
+    <t>ifood manda cupom para eu comprar 20 esfira por 5 conto</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood eu não deveria mas to rindo do "é a terceira vez na semana que meu pedido vem sem refrigerante não aguento mais"</t>
+  </si>
+  <si>
+    <t>pedi uma quentinha bem saudável por 12 conto no ifood e ainda vai vir com suco 😭🙏</t>
+  </si>
+  <si>
+    <t>toda vez que me da vontade de comer açaí eu vou no ifood, mas porra tiw, 25 conto p açaí se 350 mls, ta loko</t>
+  </si>
+  <si>
+    <t>@claraalopes pq eu pedi pelo ifood</t>
+  </si>
+  <si>
+    <t>ifood me salvando mais um dia, obg q todos que criaram o mesmo 😘</t>
+  </si>
+  <si>
+    <t>ifood: vc tem $15 de desconto pra usar no seu almoço em restaurantes selecionados 
+restaurantes selecionados: https://t.co/qy4rbpo9fp</t>
+  </si>
+  <si>
+    <t>vamo ifood libera meu cupom que eu tô com fome já porra</t>
+  </si>
+  <si>
+    <t>@mario_luiz19 @ifood tem horas que eu te odeio tanto 🤦🏼‍♀️</t>
+  </si>
+  <si>
+    <t>dia sem cupom é um dia triste, alô @ifood</t>
+  </si>
+  <si>
+    <t>nem fui pra casa almoçar hj pq sei q ia sofrer mto p voltar do consultório com esse tempooo perfeito p ficar em casa.. pedi @ifood p comer aqui mesmo</t>
+  </si>
+  <si>
+    <t>comprei um lanche no bob's por 5.50 kkkk obrigado ifood</t>
+  </si>
+  <si>
+    <t>@iza_ocarvalho pedir no ifood pelo cartão é um caminho sem volta</t>
+  </si>
+  <si>
+    <t>eu adoro essas reportagens que passam na tv romantizando esses trampos tipo uber, ifood e etc. "ah mas tem liberdade, vc faz seu horário e tal", só não dizem que a pessoa trabalha 12 horas ou mais por dia para completar a renda e nem os riscos a saúde que isso acarreta ne.</t>
+  </si>
+  <si>
+    <t>@lauaneeeee @ifood boa! achei q no @reclameaqui resolveria...mas pelo visto, n</t>
+  </si>
+  <si>
+    <t>nunca mais recebi um cupom sequer do ifood ou uber eats https://t.co/9zuzwyy5u4</t>
+  </si>
+  <si>
+    <t>ninguém:
+ninguém mesmo:
+ifood: https://t.co/mkjs0rsboh</t>
+  </si>
+  <si>
+    <t>@luizacec1 eu ia me tocar e te dá meu cupom do ifood masssssssss pelo atrevimento e falta de educação, não vai ganhar nada. atrevida!</t>
+  </si>
+  <si>
+    <t>ai olha pessoal do ifood tem que aprender a trabalhar, tão podres, joguemos fora https://t.co/pmxujzq3u9</t>
+  </si>
+  <si>
+    <t>@gabraslaso @ifood mano isso eh mt chato, ja passei por muita situação bosta com o ifood mas o rappi eh 2929928399x pior</t>
+  </si>
+  <si>
+    <t>ifood disponibiliza versão 'lite' do app para usuários. https://t.co/yheagsvifx #tánoleiajá https://t.co/ckda3w8iag</t>
+  </si>
+  <si>
+    <t>@ifood me ligaram na mesma hora que fiz a reclamação e enviaram outros lanches! tudo certo.</t>
+  </si>
+  <si>
+    <t>do nada o ifood me oferecendo almoço por 2,99 agora sim um desconto q cabe no meu orçamento</t>
+  </si>
+  <si>
+    <t>agora comprei meu almoço pelo ifood e paguei 1 real.</t>
+  </si>
+  <si>
+    <t>@ifood perdi meu almoço porque o loop não cumpriu o horário de entrega</t>
+  </si>
+  <si>
+    <t>eu amo uma empresa é o nome dela é @ifood cupom salvo de maiss</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? igor e nós do #ifood vamos te ajudar! insira o cupom jau8tt7et3 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/kouy3wybf7</t>
+  </si>
+  <si>
+    <t>eu me tornei quem eu mais temia... 
+a que gasta o dinheiro todo c ifood</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay  
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb: 
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem</t>
+  </si>
+  <si>
+    <t>ifood nao colabora mais nos cupom, babaca</t>
+  </si>
+  <si>
+    <t>a felicidade da pessoa que só pagou 3 reaix no almoço de hj :d vlw @ifood https://t.co/pxxf1yqpbs</t>
+  </si>
+  <si>
+    <t>te amo por esse cupom de 15 reais @ifood</t>
+  </si>
+  <si>
+    <t>fora os dias em que pedimos besteiras pra comer pelo ifood</t>
+  </si>
+  <si>
+    <t>@ifood engraçadinho de novo com os cupons. https://t.co/r8jtxuvjvt</t>
+  </si>
+  <si>
+    <t>mais um dia comprando lanches por menos de 5 reau
+te amo ifood</t>
+  </si>
+  <si>
+    <t>terça feira e eu acabei de pedir um x-tudo pro almoço pelo ifood, eu com certeza já perdi o controle da minha vida</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? carlos lisboa e nós do #ifood vamos te ajudar! insira o cupom 7ujfmmszxj e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/t3voyeyr05</t>
+  </si>
+  <si>
+    <t>rt @markresaffe: a mão para pedir uma comida no ifood chega coça, mas a mão que paga os boletos fala mais alto, o burguês dentro de mim sof…</t>
+  </si>
+  <si>
+    <t>já disse que amo os cupons do ifood?</t>
+  </si>
+  <si>
+    <t>a chacota de resposta do @ifood . obrigada, suas desculpas vão super melhorar a minha imagem manchada no escritório pelo escandalo que o entregador fez na recepcão do escritório. 
+é por isso que eu sou @rappibrasil prime. nunca me fizeram passar essa humilhação. https://t.co/0pekcoeqks</t>
+  </si>
+  <si>
+    <t>@mndsths @ifood manda cupom ifood, minha diabetes tá controladinha! https://t.co/xfxuqktxw7</t>
+  </si>
+  <si>
+    <t>cadê meu cupom @ifood ?????
+tô com fomeeee !!</t>
+  </si>
+  <si>
+    <t>1lt de açaí por 4,80 obg ifood nunca critiquei</t>
+  </si>
+  <si>
+    <t>@ifood ladrões</t>
+  </si>
+  <si>
+    <t>que 171 que vc e que so sobe comida no ifood?</t>
+  </si>
+  <si>
+    <t>@drgntr1 ifood tem alguma implicância cmg, não é possível</t>
+  </si>
+  <si>
+    <t>consegui usar meu cupom de desconto do ifood eu to muito feliz obrigada deus</t>
+  </si>
+  <si>
+    <t>já acordei abrindo o ifood, não tô animada a fazer almoço hj</t>
+  </si>
+  <si>
+    <t>na moral não sei pq o ifood coloca previsão de entrega se nunca é no horário que tá lá</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi: 
+gkz310126052 - 30 reais + 150 em frete
+picpay 
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/6ydfdraz4q</t>
+  </si>
+  <si>
+    <t>rt @messias0: @contreiras_gabi ele ta fazendo comercial do ifood</t>
+  </si>
+  <si>
+    <t>q vontade de um cu
+pom do @ifood</t>
+  </si>
+  <si>
+    <t>eu quero almoçar ainda hoje, colabora @ifood</t>
+  </si>
+  <si>
+    <t>@silviotums @ifood acabei de pedir um por 5, com direito a suco ainda. @ifood te amamos</t>
+  </si>
+  <si>
+    <t>almocei um rango muito delícia e paguei só r$2,99 no @ifood .</t>
+  </si>
+  <si>
+    <t>@ifood me manda cupom de 8,00
+id: adolfo matias</t>
+  </si>
+  <si>
+    <t>o cúmulo da preguiça é pedir vinho pelo ifood kkkkkkk</t>
+  </si>
+  <si>
+    <t>eu morrendo de vontade de um pastelzinho de belém do rabibi, ia pedir no ifood e até desisti, mano a taxa de entrega é mais caro que o pastelzinho</t>
+  </si>
+  <si>
+    <t>@ifood ganhei um cupom mas nao consigo usar</t>
+  </si>
+  <si>
+    <t>rt @eubarbaramarti1: eu aqui lembrando que preciso fazer dieta e do nada o ifood manda mensagem, parece aquele boy que reaparece no momento…</t>
+  </si>
+  <si>
+    <t>ifood manda 15,00 de cupom mas não adianta nada pq o pedido mínimo dos restaurantes com frete grátis é 32,00 kkkk mil vezes o rappi</t>
+  </si>
+  <si>
+    <t>ta doido não posso ver promoção de açai no ifood q to comprando</t>
+  </si>
+  <si>
+    <t>@ifood obrigado pelo cupom que não funciona 😭😭 https://t.co/edlihxgohg</t>
+  </si>
+  <si>
+    <t>te amo, @ifood . você me deixa mais pobre, mas te amo. ♥️</t>
+  </si>
+  <si>
+    <t>obrigada james por pisar tanto no ifood</t>
+  </si>
+  <si>
+    <t>o barulho da rappi e do ifood chega a me apavorar de tanto que eu vejo ele tocar no serviço, fiquei traumatizada!!! 🤦</t>
+  </si>
+  <si>
+    <t>nunca fiquei tão feliz por um cupom de desconto no ifood
+vai ter suco de melancia sim</t>
+  </si>
+  <si>
+    <t>minha consciência pesou quando vi a temperatura depois que fiz o pedido no ifood. https://t.co/g65npamfta</t>
+  </si>
+  <si>
+    <t>comida liberada maluco!
+instala o ifood, usa um cupom de r$15 abaixo, que vc ainda ganha outros todo dia! 
+não espalha não, testaê desconfiado!
+-ifood r$15:
+ltskr2vq1f ou vkx9l8dzbw
+temer, foi golpe #bozonaro! #maisfundaonao
+https://t.co/txmgcvcn8r</t>
+  </si>
+  <si>
+    <t>pqp, tava conversando com um colega, ele perguntou para mim se ta corrido e eu disse que sim, ai 1 minuto depois eu recebo um cupon do ifood escrito ta corrido né?...</t>
+  </si>
+  <si>
+    <t>@ifood me dá um cupom ?</t>
+  </si>
+  <si>
+    <t>ifood matando meu desejo de strogonoff 🤤 desconto diário é tudo p mim</t>
+  </si>
+  <si>
+    <t>a promoção do the bowl salvou meu almoço! poke de peixe branco com 30% de desconto, obrigada @ifood</t>
+  </si>
+  <si>
+    <t>@viniwebber_ só não joguei pq havia pedido pelo ifood amiga</t>
+  </si>
+  <si>
+    <t>cupons de desconto fresquinhos pro seu almoço
+🍣 cupom rappi (r$150)
+3dp36453223
+🍖 cupom uber eats  (r$5)
+eats-0nh7ei
+#uber #ubereats #rappi #ifood</t>
+  </si>
+  <si>
+    <t>rt @neryluc: abro o ifood e tem restaurante vendendo omelete por 30 reais 
+com trinta reais eu compro o carro do ovo inteiro, pô</t>
+  </si>
+  <si>
+    <t>nem tava com vontade e o ifood me manda um cuponzão de 15 conto
+tive que pedir um açaí</t>
+  </si>
+  <si>
+    <t>@jeixca @hydratedgiusti @ifood e o nosso, como tá?
+manda na dm.
+hahahahahahahah</t>
+  </si>
+  <si>
+    <t>comprei um sorvete no ifood e paguei 3 reais. é isso.</t>
+  </si>
+  <si>
+    <t>eu sempre uso o @ifood e fui inventar de usar o @rappibrasil que 💩 de app, meu almoço está quase uma hora atrasado e eu não consigo cancelar porque já paguei pelo cartão e a atendente do restaurante me enrolando dizendo que tá chegando 😡😡😡</t>
+  </si>
+  <si>
+    <t>vou comprar um prato de strogonoff por r$ 2,00
+@ifood, eu te amo! ♥️</t>
+  </si>
+  <si>
+    <t>paguei dois reais no meu almoço ifood eu te amo</t>
+  </si>
+  <si>
+    <t>obrigada pelo mimo @ifood https://t.co/4ioyohvfbd</t>
+  </si>
+  <si>
+    <t>ifood cadê meu almoçoooo</t>
+  </si>
+  <si>
+    <t>gente o @ifood realmente n aceitar débito nubank ou é só aqui q não dá certo?</t>
+  </si>
+  <si>
+    <t>@ifood  obrigada por nada, fiz o meu pedido no almoço, mas vai chegar pra janta?</t>
+  </si>
+  <si>
+    <t>depois de ter sido humilhada muitas vezes pelo ifood por não conseguir usar os cupons, hj foi o dia de ser exaltada conseguindo almoçar por r$ 3,5</t>
+  </si>
+  <si>
+    <t>acabei de pagar 2,90 em um pratão de strogonoff de camarão com batata frita e arroz com brócolis e é assim q eu alimento minha mina com comidas diferentes obrigada @ifood</t>
+  </si>
+  <si>
+    <t>@ifood manda cupom de 8 reais
+id: adolfo matias</t>
+  </si>
+  <si>
+    <t>tô cheia de fome ifood tá demorando pra clr</t>
+  </si>
+  <si>
+    <t>quando eu preciso vc nao me da @ifood</t>
+  </si>
+  <si>
+    <t>ifood me deu um cupom de 15 reais nunca critiquei</t>
+  </si>
+  <si>
+    <t>@ifood eu quero uma resposta e sou boa pra insistir @ifood</t>
+  </si>
+  <si>
+    <t>@nathalia_piva o ifood tinha me abandonado, eu ja estava uns 2 meses sem receber um cupom</t>
+  </si>
+  <si>
+    <t>promoção no ifood de 3 reais o almoço,quero até ver qq vai chegar aq</t>
+  </si>
+  <si>
+    <t>o entregador do ifood chegou aqui tirou a mochila do ombro e jogou a mochila de cabeça pra baixo na minha frente... quase que eu perguntei se ele tava carregando a mãe lá dentro pq putz</t>
+  </si>
+  <si>
+    <t>os cara alem de tirar a opção de ligar ainda nao responde as chamadas de ajuda no pedido @ifood https://t.co/nfoohemjhb</t>
+  </si>
+  <si>
+    <t>ganhei um cupom no ifood de 15 reais, pedi uma parada de 17 no debito. os caras me deram o açaí de graça porque estavam sem maquina</t>
+  </si>
+  <si>
+    <t>@ifood e o meu problema @ifood ?? ta facil responder todo mundo ne? os mais humides vc não responde dm</t>
+  </si>
+  <si>
+    <t>10 da manhã e os ifood ja pensando na proxima gracinha https://t.co/bkxm8wp0es</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? anderson e nós do #ifood vamos te ajudar! insira o cupom gz3wqgagwu e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/5jyrmebnm6</t>
+  </si>
+  <si>
+    <t>pelo amor de deus ifood tóxico cadê meu cupom eu quero almoçar sushi</t>
+  </si>
+  <si>
+    <t>amo o @ifood, to pedindo meu almoço por r$ 5,90
+#gratidao</t>
+  </si>
+  <si>
+    <t>está sendo uma tortura receber cupom do ifood, abrir o aplicativo toda empolgada, e perceber que o cupom não é válido para o restaurante</t>
+  </si>
+  <si>
+    <t>ifood você já me amou mais</t>
+  </si>
+  <si>
+    <t>algum ser aq tem desconto no ifood???????</t>
+  </si>
+  <si>
+    <t>sabe aquele dia que você resolver usar o @ifood pela primeira vez e não acha os cupons no twitter...então...</t>
+  </si>
+  <si>
+    <t>toda hora uma tentação diferente com o ifood mandando cupom</t>
+  </si>
+  <si>
+    <t>gastar cm ifood é um caminho sem volta...</t>
+  </si>
+  <si>
+    <t>vo pedi ânimo e vontade de estudar no ifood</t>
+  </si>
+  <si>
+    <t>a fome bateu?
+use o código eats-tzsu264mue e ganhe r$5 de desconto nos primeiros 3 pedidos no #ubereats. https://t.co/f2kyylg3ig
+#cupom #desconto #almoco #comida #ifood #rappi #fome</t>
+  </si>
+  <si>
+    <t>@ifood vcs tão empenhados em me impedir de usar cupom, hein</t>
+  </si>
+  <si>
+    <t>falecida de fome e nada do ifood chegar</t>
+  </si>
+  <si>
+    <t>@jp_sartorio ao invés do ifood, pensei que poderia ser a reserva ou hurley tbm</t>
+  </si>
+  <si>
+    <t>meu deus o ifood com cupom de 15 reais</t>
+  </si>
+  <si>
+    <t>@lorisslene domingo eu paguei 25 reais numa comida que tava bem ruim. chorei de raiva. no ifood tbm. 😒</t>
+  </si>
+  <si>
+    <t>agora que lembrei que ontem comprei duas cervejas puro malte pelo ifood no cupom promocional, porra os cara me deram cupom de 15 reais e a conta deu r$18,00 ou seja paguei r$3,00 reais auhsuahsu detalhe: eu só tinha r$5 pilas e tava olhando o ifood só por olhar mesmo kkk</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? nadine e nós do #ifood vamos te ajudar! insira o cupom wsgjaycv9r e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/zvfk8whjoo</t>
+  </si>
+  <si>
+    <t>não sei o que eu seria sem uber e ifood</t>
+  </si>
+  <si>
+    <t>@ifood me ajuda, um amigo me chamou pra conhecer o app de vocês, mas o cupom dele não fubciona</t>
+  </si>
+  <si>
+    <t>eu morrendo de fome e o restaurante do ifood nem preparou meu prato ainda</t>
+  </si>
+  <si>
+    <t>ifood sempre salva meu almoço, amo</t>
+  </si>
+  <si>
+    <t>mano n acredito que o @ifood tirou a opção de ligar pro restaurante, meu pedido veio sem refrigerante, q eu ja paguei pelo app, e ate agora nao consegui ligar la pra falar isso com eles eu vo explodir</t>
+  </si>
+  <si>
+    <t>rt @annanaoexiste: acabei de me deparar no ifood com uma hamburgueria chamada hamburguês safado
+pedi o lanche comunista e de sobremesa um…</t>
+  </si>
+  <si>
+    <t>@felipeolimadev @ifood r$15 com pedido mínimo de r$17 (!!!)</t>
+  </si>
+  <si>
+    <t>alguém sabe algume famose que tem desconto no ifood???</t>
+  </si>
+  <si>
+    <t>rt @marilupus: librianas achei um lugar otimo no ifood pra gente https://t.co/wlirvtjdu2</t>
+  </si>
+  <si>
+    <t>@messias0 eu perdi alguma coisa? acordei e ta uma galera gastando o vinicius sobre esse negócio de ifood kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>cupom uber eats
+código: 10setembro2
+. 
+entrega grátis em 10 pedidos
+. 
+válido até 18/09
+#uber #cabify #easy #99pop #ifood #rappi #eats https://t.co/qnhueoc3nc</t>
+  </si>
+  <si>
+    <t>pra que o @ifood me da um cupom pra restaurante selecionado mas não tem nenhum selecionado perto de mim? https://t.co/d3t8ruyjem</t>
+  </si>
+  <si>
+    <t>ifood disponibiliza versão mais leve do aplicativo para android https://t.co/ndonofrbna https://t.co/hs7166pun2</t>
+  </si>
+  <si>
+    <t>nenhuma mulher independente online aí pra pedir um açaí pra mim no ifood não????</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? vinicius e nós do #ifood vamos te ajudar! insira o cupom 7xj1qct3a1 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/p0t4hc79sk</t>
+  </si>
+  <si>
+    <t>@ifood preciso duns 100 kibe</t>
+  </si>
+  <si>
+    <t>@laholiva @juziuzi @ifood vira e mexe compro esse primeiro por 5 reais</t>
+  </si>
+  <si>
+    <t>cadê o cupom do ifood nas horas que eu preciso</t>
+  </si>
+  <si>
+    <t>@anajuliapitos incrivel, brigada
+pesquisei no tt cupom ifood achei seu tweet maravilhoso pq meu almoço foi de 29 pra 14 reais 🙃🙃🙃 paz no seu coração que deus lhe abençoe</t>
+  </si>
+  <si>
+    <t>rt @curtovcs: só eu que fico xingando os anúncios do youtube? 
+anúncio: ifood
+eu: ifood teu cu fdp</t>
+  </si>
+  <si>
+    <t>@quemsabs @ifood daqui 15 dias eles te respondem.</t>
+  </si>
+  <si>
+    <t>rt @ydngomes: alguém me manda cupom de ifood</t>
+  </si>
+  <si>
+    <t>o ifood me obriga a engordar. https://t.co/qefbehglla</t>
+  </si>
+  <si>
+    <t>rt @fosklantejoula: pelo menos eu sei fazer comida criminalmente bem 
+fodase o ifood</t>
+  </si>
+  <si>
+    <t>ifood cadê meu cupom????, eu quero pedir um chiquinho aaaaaah</t>
+  </si>
+  <si>
+    <t>@msginnymoon @ifood dei um tempo antes de abrir reclamação lá para ver se entravam em contato. hoje me ligaram.</t>
+  </si>
+  <si>
+    <t>@ifood chegou não</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? jesonias e nós do #ifood vamos te ajudar! insira o cupom pg6ctk4b7t e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/srugciclor</t>
+  </si>
+  <si>
+    <t>sinceramente, vou pedir um ifood</t>
+  </si>
+  <si>
+    <t>ifood deu um cupom topissimo de 15 reais hj e eu usei pra desconto em uma salada, to arrependida</t>
+  </si>
+  <si>
+    <t>esse hambúrguer é bom demais pra ser verdade! - ifood https://t.co/tn5aowyetm via @youtube</t>
+  </si>
+  <si>
+    <t>escolhas? a minha única opção é ficar com fome, já que não recebi mais cupom @ifood https://t.co/qewvywlua1</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/hgcz22134s</t>
+  </si>
+  <si>
+    <t>morrendo de fome e meu amigo ifood não me manda um mísero cupom de desconto.</t>
+  </si>
+  <si>
+    <t>ifood já faz testes para fazer entregas usando drones https://t.co/czjhzb3iib</t>
+  </si>
+  <si>
+    <t>ifood patrocinou o açaí</t>
+  </si>
+  <si>
+    <t>queria usar a funcionalidade de retirada do ifood no temaki fry em frente ao estágio, mandaram cupom, funciona em 2 temaki fry menos nesse da frente aaaaaa</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi:
+gkz310126052 - 30 reais + 150 em frete. 
+picpay
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem https://t.co/ra4epgtcyj</t>
+  </si>
+  <si>
+    <t>pedi ifood e agora to chatiada pq o motoqueiro deve estar na chuva 😭</t>
+  </si>
+  <si>
+    <t>rt @mmaethe: r$15 conto de desconto no ifood no primeiro pedido, usa o código da amiga aqui yg2yx2x6v1</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? gabriella e nós do #ifood vamos te ajudar! insira o cupom 9spezk9wum e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/9o0ehvliwh</t>
+  </si>
+  <si>
+    <t>minha mãe só quer saber de ifood agora. acabou de me pedir uma salada, ela é fit ela</t>
+  </si>
+  <si>
+    <t>ai, amo quando ifood manda uns cupons que presta!!</t>
+  </si>
+  <si>
+    <t>@ifood queria tanto um cuponzin</t>
+  </si>
+  <si>
+    <t>acabei de almoçar e já tô no ifood, isso já está fora de controle</t>
+  </si>
+  <si>
+    <t>pedi uma comida pelo ifood da savassi e nossa, q comida ruim... puta q pariu caralho</t>
+  </si>
+  <si>
+    <t>@tamilla8 @ifood eu reclamei dia 09 eles me responderam agora dia 17 imagina se eu ainda não tivesse indo pro concorrente ia tá agora só os ossos da caveira</t>
+  </si>
+  <si>
+    <t>pelo menos eu recebo cantada do ifood</t>
+  </si>
+  <si>
+    <t>@ifood pq vc me ferrou???????? te odeioooo</t>
+  </si>
+  <si>
+    <t>porra ifood dando desconto de 15 q odio pq hj n é sextaaaa</t>
+  </si>
+  <si>
+    <t>a pessoa dos cupons do ifood deve estar muito feliz pois finalmente usei um pra almoçar</t>
+  </si>
+  <si>
+    <t>3 reais um almoço no ifood eu amo o capitalismo https://t.co/sc1vh3xhpz</t>
+  </si>
+  <si>
+    <t>@sweet_morgado filha da próxima vez eu levo pra você
+sou a própria ifood 😢😢😢</t>
+  </si>
+  <si>
+    <t>to tão ruim que pedi almoço no ifood kkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @taenaraf: não vejo a hora do ifood me patrocinar tbm, fé 🙏😂</t>
+  </si>
+  <si>
+    <t>@ifood por falta de cupom de 8 reais
+adolfo matias</t>
+  </si>
+  <si>
+    <t>queria comprar comida no @ifood mas só tem pagamento pelo cartão</t>
+  </si>
+  <si>
+    <t>15 reais de desconto do nada obrigado ifood vou almoçar maneiro hj</t>
+  </si>
+  <si>
+    <t>até que enfim ifood mandou cupom slc</t>
+  </si>
+  <si>
+    <t>@ifood  me da cupom todo dia kkkkkkk assim ru viro obesa mórbida</t>
+  </si>
+  <si>
+    <t>impressionante o descaso com o consumidor, @ifood ! uma hora esperando resposta no menu ajuda no aplicativo e nada...</t>
+  </si>
+  <si>
+    <t>só pq hj ia pedir algo no ifood ele não me manda cupom 🥺</t>
+  </si>
+  <si>
+    <t>quase a sala toda pediu comida no ifood por 1 real kskskksksksksks</t>
+  </si>
+  <si>
+    <t>que almoço top slc, 5 estrelas fácil no ifood</t>
+  </si>
+  <si>
+    <t>@ifood cadê os cupons ? ❤️ kkkkkkkk</t>
+  </si>
+  <si>
+    <t>almoço saiu a 3$ hj no ifood hj mt bom 😋😂</t>
+  </si>
+  <si>
+    <t>@isaacsoares @ifood nunca tinha tido problemas com entrega. a partir de agora vou deixar para pagar na hora, também. hoje me ligaram e resolveram, mas dois dias e várias mensagens depois. não dá.</t>
+  </si>
+  <si>
+    <t>@losersomething @ifood eu vou ter q fazer isso, no vei eu to borbulhando de raiva vai tomar no cu dessa porra. os cara faz a gente de bobo, to aqui com minha marmita na minha frente e n tem meu refri preu tomar</t>
+  </si>
+  <si>
+    <t>paguei 2 reais no meu almoço, obrigada ifood você é um amorzinho</t>
+  </si>
+  <si>
+    <t>pedi um peixe com molho de camarão no ifood 🤤🤤</t>
+  </si>
+  <si>
+    <t>o problema do jovem é ganhar cupom do ifood e achar que tá economizando https://t.co/pxppteilrd</t>
+  </si>
+  <si>
+    <t>ganhei cupom do ifood e pedi um bolinho, achei fofo https://t.co/vmydgizwiy</t>
+  </si>
+  <si>
+    <t>adoro quando o ifood tá com cupom de desconto</t>
+  </si>
+  <si>
+    <t>@laholiva @mandellivaleria @ifood aparentemente o ifood em brasilia eh uma bosta</t>
+  </si>
+  <si>
+    <t>@ifood  cuponzinho hj por favor 😔</t>
+  </si>
+  <si>
+    <t>o @ifood não me manda mais cupom &amp;lt;/3</t>
+  </si>
+  <si>
+    <t>só queria uma notificação do ifood dizendo que meu almoço saiu para entrega</t>
+  </si>
+  <si>
+    <t>morrendo de preguiça de cozinhar e tendo que resistir aos cupons do ifood https://t.co/lpsotcppxu</t>
+  </si>
+  <si>
+    <t>cupom de r$ 15 na primeira compra no ifood - ecjrcmk41y</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem  - 10 reais no seu primeiro pedido  
+rappi: 
+gkz310126052 - 30 reais + 150 em frete
+picpay 
+cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
+airbnb:
+https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem.</t>
+  </si>
+  <si>
+    <t>to comendo um prato de arroz, feijão, farofa, carne e batata cozida por 3 reais?????
+não entendi nada só sei que amei
+@ifood nunca critiquei</t>
+  </si>
+  <si>
+    <t>cuponzin de $15 no ifood, chama no açaí da tarde! ~fazia mais de dias que não recebia um cupom~ @ifood que ta acontecendo ?</t>
+  </si>
+  <si>
+    <t>obrigado ifood pelos mimos, já quero outro cupom</t>
+  </si>
+  <si>
+    <t>@ifood @ifood  iai bora to esperando dm</t>
+  </si>
+  <si>
+    <t>ifood lança versão mais leve do aplicativo.
+#acontecendoaqui #ifood #aplicativo #maisleve
+https://t.co/vkoandgiag https://t.co/tlawqokofr</t>
+  </si>
+  <si>
+    <t>amigos, espero que vocês nunca precisem de assistencia do @ifood porque eles não respondem nenhum e-mail que a gente envia</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? wesley  frança e nós do #ifood vamos te ajudar! insira o cupom 27k5l1crv7 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/c6g3seo9yf</t>
+  </si>
+  <si>
+    <t>almoçar com 6 pila eh mt bom   obg por td ifood</t>
+  </si>
+  <si>
+    <t>passando pelos piores dias do mês eu penso: seria tão bom se a notificação de “você não está grávida” chegasse no nosso celular igual cupom do ifood 💁🏽‍♀️</t>
+  </si>
+  <si>
+    <t>passa uma vergonha do caralho fazendo “ publi “ de ifood se sentindo o blogueiro no insta kkkkkkkkkkkk sinto pena — aí é fodaaaaa kkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkk https://t.co/vy53lwssdy</t>
+  </si>
+  <si>
+    <t>poxa @ifood saudades dos cupons que a gente já viveu :(</t>
+  </si>
+  <si>
+    <t>ganhei cupom de 20r$ do ifood esse momento é meu</t>
+  </si>
+  <si>
+    <t>@itsnbhdmadu obrigada mamãe ifood</t>
+  </si>
+  <si>
+    <t>acabei de almoçar e o ifood manda 3 msg pra mim de promoções :(</t>
+  </si>
+  <si>
+    <t>o atendimento ao cliente do @ifood é uma piada de ruim</t>
   </si>
   <si>
     <t>cupom de desconto: 
@@ -66,326 +1204,192 @@
 picpay 
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/y9sqgcbs3a</t>
-  </si>
-  <si>
-    <t>o @ifood me manda push sobre o loop mas não tem loop aqui... aí fica difícil :( https://t.co/secthwogzx</t>
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/5nmwoaoabr</t>
+  </si>
+  <si>
+    <t>o @ifood da um cupom para restaurantes selecionados e os restaurantes da lista tão todos fechados agora...........</t>
+  </si>
+  <si>
+    <t>ifood não manda um desconto bom quando tô trabalhando de manhã 😒😂</t>
+  </si>
+  <si>
+    <t>queria q alguém me oferecesse amor como o ifood me oferece cupom</t>
+  </si>
+  <si>
+    <t>e o atendimento do @ifood que é um lixo e ainda por cima não aceita feedback</t>
+  </si>
+  <si>
+    <t>@nickthomasnocu @ifood aaaa
+é só em hora de almoço?</t>
+  </si>
+  <si>
+    <t>paguei r$ 2,99 ifood eu te veneroooo https://t.co/mpyhq0rfcw</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
 rappi: 
-gkz310126052 - 30 reais + 150 em frete.
+gkz310126052 - 30 reais + 150 em frete
 picpay 
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/asad8vhqqj</t>
-  </si>
-  <si>
-    <t>to sentindo q uma hora ou outra esse patrocínio do ifood vai chegar pra mim tmbbb, fé</t>
-  </si>
-  <si>
-    <t>rt @vitorbarboza11: doido pra ficar bom logo e dar uma amassada no ifood 🤑</t>
-  </si>
-  <si>
-    <t>@giovannoodles pq encurtar as coisas como cu é função do ifood e do cobre na tabela periódica</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/7ajmrfdo0n</t>
-  </si>
-  <si>
-    <t>não sei pq ainda não fui validado no @ifood entregador! 😷😷😷</t>
-  </si>
-  <si>
-    <t>tava lendo matérias e comentários sobre galera que trabalha com apps - uber, ifood, rappi etc. não sei vocês, mas eu sempre deixo uma gorjeta de pelo menos $5 a mais em cada pedido/corrida. os caras trabalham muito e ganham pouco, em geral. custa muito pouco deixar um mais.</t>
-  </si>
-  <si>
-    <t>@tamilla8 @ifood é só dizer que ele envia mensagens estranhas com duplo sentido.</t>
-  </si>
-  <si>
-    <t>eu aqui pensando em pedir sushi pra almoçar, vou nas avaliações do estabelecimento no ifood, e me deparo com isso... longe de mim não me derem me troco de r$0,50 meninas 🤣🤣🤣 https://t.co/cgzlwvf5l3</t>
-  </si>
-  <si>
-    <t>rt @jdfeltrin: ifood: vc recebeu um cupom!!!!
-(esse cupom é valido para compras acima de r$800 nos restaurantes "kebab do pipo" e "rolinha…</t>
-  </si>
-  <si>
-    <t>acabei de comprar uma torta de frango, um bolo de ninho c morango e um pastel de nigela por 3 reais, obrigada ifood</t>
-  </si>
-  <si>
-    <t>@dasilva06738780 aqui me perguntando quantas corridas de ifood, rappi ou uber você precisa fazer para presentear a sua e tirá-la do perigo de assassinato.
-🤔🤔🤔🤔🤔🤔</t>
-  </si>
-  <si>
-    <t>eu to com muita vontade de comer açaí porém não to vendo nada de açaí no ifood pedi uma pizza de chocolate, uma hora dessa jesus!!</t>
-  </si>
-  <si>
-    <t>eu me segurando pra n pedir ifood https://t.co/dwkdsxclm2</t>
-  </si>
-  <si>
-    <t>a não ser que a moto seja do ifood ai a gente gosta também https://t.co/4ehlbgt9ta</t>
-  </si>
-  <si>
-    <t>eu pedi ifood pra luís ontem e o cara me ligou de madrugada pra confirmar o pedido aí eu nem sei o q falei mano pq eu já tava alterada de bebidas e ainda com sono pra krlh</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? letícia e nós do #ifood vamos te ajudar! insira o cupom 91ly2ejmef e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/e2rbyhkbsf</t>
-  </si>
-  <si>
-    <t>compram minha arte to passando fome quero pedir ifood</t>
-  </si>
-  <si>
-    <t>bixo que fome. o ifood poderia desenrolar uns cupons pro almoco né</t>
-  </si>
-  <si>
-    <t>eu olhei a fatura do cartão e fiquei feliz por ver que a última vez que comprei comida no ifood faz mais de 15 dias</t>
-  </si>
-  <si>
-    <t>açaí por r$2,63, finalmente os humilhadas foram exaltados.
-depois de um milhão de anos, o ifood mandou um cupom decente. https://t.co/disowg5kgt</t>
-  </si>
-  <si>
-    <t>fiquei com fome de joelho
-abri o ifood tinha uma promoção de 5 joelhos pelo preço de 4
-comprei 5 joelhos</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/rrjmpwb9mt</t>
-  </si>
-  <si>
-    <t>joguei contra meu amigo em um jogo valendo um x tudo no ifood ai ele ganhou vou ter q amanhã pedir um ifood em triagem pro mlk kk</t>
-  </si>
-  <si>
-    <t>crc fiz merda no pedido do ifood 🤦‍♂️</t>
-  </si>
-  <si>
-    <t>rt @kvaltafsmerter: alguém manda um ifood aqui???</t>
-  </si>
-  <si>
-    <t>eu a essa hora achando que ia ter algo no ifood. pqp</t>
-  </si>
-  <si>
-    <t>tenho que apagar ifood 😭 tô falido</t>
-  </si>
-  <si>
-    <t>sim. tirando nossos direitos ( teu também), entregando as riquezas do brasil, precarizando o trabalho-vide a uberização, ifood e afins- impedindo investigação contra os desmandos da família bolsonaro, controlando à pf, passando por cima de tudo e de todas. etc https://t.co/bdqbs4yw9w</t>
-  </si>
-  <si>
-    <t>ifood tirando minha paciência</t>
-  </si>
-  <si>
-    <t>rt @luansvntiago: ifood vai me levar à falência</t>
-  </si>
-  <si>
-    <t>gata eu n sei cozinhar, mas sei pedir um ifood como ninguém...</t>
-  </si>
-  <si>
-    <t>@samianainternet @ifood ah não</t>
-  </si>
-  <si>
-    <t>rt @marcusvisn: ifood sem cupom: r$4,00 a taxa de entrega 
-vem com piadinha ‘oi tem cu...rsrsrs...pom de 10 reais pra você’
-taxa de entre…</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/nxovi98sut</t>
-  </si>
-  <si>
-    <t>pedi um açaí no ifood só pra aproveitar cupom de 15 q não ganho desse app mercenário há meses https://t.co/cldrk8gkhg</t>
-  </si>
-  <si>
-    <t>quando eu penso que vou me livrar do ifood pq parei de comer lanchos eu descubro meu mais novo vício: bolos de pote, que infelizmente tem um lugar aqui perto com entrega grátis e tudo
-deus pq tu não me sondas?</t>
-  </si>
-  <si>
-    <t>completamente descontrolada vasculhando o ifood às 10h24.</t>
-  </si>
-  <si>
-    <t>“aplicativos como über e ifood são fonte de renda de quase 4 milhões de autônomos.” (época negócios, 2019)
- precisamos pensar o motivo destes apps estarem tão em alta na nossa vida, e a resposta está na nossa frente: falta de emprego.
-https://t.co/kdsjz1ubx3</t>
-  </si>
-  <si>
-    <t>@fenix_mah ifood pode até te elogiar, mas quem de fato te da comida sou eu</t>
-  </si>
-  <si>
-    <t>e no ifood, pittsburg mas a entrega 9,40$, tô nem rica</t>
-  </si>
-  <si>
-    <t>@brunolasco sai do armário, beeee
-comida fácil é no ifood</t>
-  </si>
-  <si>
-    <t>obrigada aí quem usou meu código do ifood, agr tenho 20 reaix de desconto gostei</t>
-  </si>
-  <si>
-    <t>@ocatarina_ @ifood kkkkkkk 67 kg de pura gostosura</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? vevé e nós do #ifood vamos te ajudar! insira o cupom u5de6efarq e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/gps7lf8vpt</t>
-  </si>
-  <si>
-    <t>@car_o_los vão vocês! eu sei ficar sozinho em casa. tem ifood. só preciso disso. kkk</t>
-  </si>
-  <si>
-    <t>@estadao é a era do empreendedorismo, auto-emprego, “uberizaçāo” do trabalho. quantos leandros por aí , sem férias, sem carteira assinada, sem segurança social...o q o ifood tem a ver se o rapaz tiver uma lesão? uber, por exemplo, nada tem a ver com motoristas e carros que lhe servem.</t>
-  </si>
-  <si>
-    <t>@1996seya salivei só de imaginar, cadê esse salve no ifood?</t>
-  </si>
-  <si>
-    <t>@sggnatalia @ifood kkkkkkkkkk fome 😞</t>
-  </si>
-  <si>
-    <t>o ifood está enviando-me umas mensagens estranhas.</t>
-  </si>
-  <si>
-    <t>um abraço pra quem inventou ifood e ubereats. são a salvação da minha preguiça, bixo kakaka</t>
-  </si>
-  <si>
-    <t>@ifood oi pessoal me mandem alguma comida, só que não tenho dinheiro, ajuda a gay aqui poxa</t>
-  </si>
-  <si>
-    <t>kkkkkkkkkkkkkkkkkkk é assim que a equipe trabalha, a base do ifood marina https://t.co/3fppyqkeyu</t>
-  </si>
-  <si>
-    <t>lindo dia @ifood https://t.co/cr936hjr6r</t>
-  </si>
-  <si>
-    <t>uber
-netflix
-spotify
-rappi
-ifood
-todos trouxeram serviços antes muito mais caros ou muito menos disponíveis para a camada mais pobre, que é uma das que mais consome no país. mas a esquerdinha a favor dos pobres acha defeito em tudo isso aí e se pudesse proibia</t>
-  </si>
-  <si>
-    <t>@vitortriforcekf @imcheed pensei que já ia conseguir pedir no ifood =(</t>
-  </si>
-  <si>
-    <t>@begnisana já, acontece com todo mundo pq o aplicativo deles não é intuitivo igual o ifood, hoje nem uso mais o uber eats pra não passar raiva 😪</t>
-  </si>
-  <si>
-    <t>rt @oidiferente: só eu que fico xingando os anúncios do youtube? 
-anúncio: ifood 
-eu: ifood teu cu fdp</t>
-  </si>
-  <si>
-    <t>bom dia @ifood 
-nao adianta me mandar notificação sem resolver meu problema!!!! 😡😡😡😡 https://t.co/dsadxj6cb9</t>
-  </si>
-  <si>
-    <t>@vivixsm a porra do ifood não quer deixar meu lanche vir pq não é pelo cartão, to revoltado</t>
-  </si>
-  <si>
-    <t>eu não posso ter dinheiro em maos, são 1:15 e eu tenho que dormir, mas tô aqui me roendo querendo comprar algo no ifood pra comer</t>
-  </si>
-  <si>
-    <t>falei que não ia gastar mais sem necessidade, tô eu aqui escolhendo comida no ifood</t>
-  </si>
-  <si>
-    <t>@luc4sandrey @ifood essas horas?</t>
-  </si>
-  <si>
-    <t>eai @ifood vai ficar cancelando meu x coraçao mesmo porra só queria comer</t>
-  </si>
-  <si>
-    <t>cupom do ifood de 15 reais eu vo te que compra alguma coisa</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/g1ox6eya07</t>
-  </si>
-  <si>
-    <t>caralho @ifood , custava fazer uma notificação mais chamativas quando o restaurante cancela? to aqui com o celular na mão a quase uma hora, morrendo de fome, sem saber que o restantaurante cancelou há 40 min. e isso acontece toda semana, q saco aaaaa</t>
-  </si>
-  <si>
-    <t>rt @esqu1lofrenia: a mulher veio deixar o lanche aqui em casa ne, ifood e tal
-ela: bom lanche e boa noite
-eu: obrigada amor dorme bem 
-kkkk…</t>
-  </si>
-  <si>
-    <t>@prisciio so namoro c o ifood no meu bucho.....</t>
-  </si>
-  <si>
-    <t>@vitorcesario @ifood no meu essas piadas não funcionam, vem a porra da mensagem inteira. 😭</t>
-  </si>
-  <si>
-    <t>@millenaaraujosz @maary_porto0 fui tomar banho e esqueci do teu açaí kkk aí fui pedir agr e não tá indo '-' 
-culpa o @ifood tmj</t>
-  </si>
-  <si>
-    <t>ifood em crescimento ? vale a pena cadastrar seu restaurante no aplicati... https://t.co/yrilbbgmcs via @youtube</t>
-  </si>
-  <si>
-    <t>eu chego muito tarde, não dá pra fazer janta, aí não tenho o que levar no almoço. e eu não gosto tanto assim de ifood.
-principalmente pra comer no trabalho.</t>
-  </si>
-  <si>
-    <t>@luc4sandrey @ifood hshshshshshs</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? leonardo menezes e nós do #ifood vamos te ajudar! insira o cupom 3p7pnc23gn e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/k6i07r8bav</t>
-  </si>
-  <si>
-    <t>@linasantox @ifood patrocina nois</t>
-  </si>
-  <si>
-    <t>cupom cabify
-código: freeway
-. 
-desconto de 10% em 5 corridas
-válido até 20/09
-#uber #cabify #easy #99pop #ifood #rappi #eats https://t.co/fsoxx50hfn</t>
-  </si>
-  <si>
-    <t>a família toda aq em casa esperando o ifood chegar, uma hora já, não chega nunca, tá todo mundo se matando aq kkkk</t>
-  </si>
-  <si>
-    <t>essas horas e o pompeia pedindo ifood n para né</t>
-  </si>
-  <si>
-    <t>tô só o ifood aqui,querendo me comprar com descontos kkkkkk</t>
-  </si>
-  <si>
-    <t>tinha pedido comida pelo ifood, uns hambúrguer com nome de filme (achei isso maravilhoso, sou uma criança impressionável) só que teve um problema: tava demorando que só.
- mainha resolveu ligar pra lá pra saber oq tava acontecendo</t>
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/8lcr1qgccu</t>
+  </si>
+  <si>
+    <t>a loja que vende o açaí é bem aqui na rua de cima e eu pedi pelo ifood pq não vou sair nesse sol nem fudendo 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>@perrygosa_ como assim trabalhando de moto ??? ta fazendo ifood é? kk</t>
+  </si>
+  <si>
+    <t>pensando seriamente em pedir um açaí pelo ifood mais tarde!</t>
+  </si>
+  <si>
+    <t>todo santo dia um sofrimento diferente pra abrir app sem memória o ápice foi excluir o ifood mano.... refleti sério antes</t>
+  </si>
+  <si>
+    <t>minha situação é a seguinte: 
+-estou de férias.
+-sozinho em casa, a mulher só larga 21h 
+-em jejum ainda até essa hora
+-zero coragem de levantar pra fazer comida
+-zero condições de pedir um ifood
+-minha mãe mora há 19km de distancia
+vou morrer de fome.</t>
+  </si>
+  <si>
+    <t>@hydratedgiusti @ifood o backlog do social media do ifood deve tá gigantesco kkkkk</t>
+  </si>
+  <si>
+    <t>entregador do ifood: “nossa que da hora, nunca vi alguém me esperando” eu: “tenho amor pela minha vida, meu irmão tá dormindo, se o porteiro interfonar ele acorda, como a entrega ñ tem localização fico esperando” rimos</t>
+  </si>
+  <si>
+    <t>como eu amo o @ifood https://t.co/rfkwwoagta</t>
+  </si>
+  <si>
+    <t>@mandellivaleria @juziuzi @ifood mano sim??? olha isso https://t.co/mkepptllz5</t>
+  </si>
+  <si>
+    <t>@giogaltier tem no ifood e na uber eats, chama "cailu". se precisar eu mando o número. 
+(se falar que é amigo da luana chega mais rápido e com mais comida rsss)</t>
+  </si>
+  <si>
+    <t>@ifood vamo precisa duns 190 kibe e esfirra pro surubao</t>
+  </si>
+  <si>
+    <t>a tristeza com a comida começa no momento que ela não chega no horário estimado pelo ifood</t>
+  </si>
+  <si>
+    <t>f1 marcando o ifood e almoçar na lariquinha 🤤</t>
+  </si>
+  <si>
+    <t>@ifood pisou muito no cupom hoje lindos</t>
+  </si>
+  <si>
+    <t>@maynight0 qnd eu voltar pro d3 te dou um ifood, espeda sentado</t>
+  </si>
+  <si>
+    <t>@ifood pq vc nao aceita o meu cartao de credito?caralho que fomeee</t>
+  </si>
+  <si>
+    <t>ifood ladrão do caralhp vai dar desconto pro inferno capeta</t>
+  </si>
+  <si>
+    <t>caralho, esse loop do @ifood é bom demais!!! genial a ideia!!!</t>
+  </si>
+  <si>
+    <t>vou pedi um ifood depois cupom de 15</t>
+  </si>
+  <si>
+    <t>@ifood me mandou cupom vou almoçar por 2,50 com coca 600 af te amo sabe</t>
+  </si>
+  <si>
+    <t>@ifood, fiz um chamado no atendimento de vocês dia 09 ou 10, até então não obtive resposta, minhajuuudaa?</t>
+  </si>
+  <si>
+    <t>ganhei cupom no ifood e minha quentinha saiu só 8 reais 🤩 aulass</t>
+  </si>
+  <si>
+    <t>ganhei um ifood ❤️, to virando gostosa</t>
+  </si>
+  <si>
+    <t>metade da sala pediu comida no ifood por 1 real kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>ifood ladrão que ódio</t>
+  </si>
+  <si>
+    <t>o zz ifood é vida kkk 😋😋😂</t>
+  </si>
+  <si>
+    <t>eai! @ifood pedi um loop hoje. o entregador marcou como entregue mas nem passou pela porta. como proceder?</t>
+  </si>
+  <si>
+    <t>olha que terça linda! pra ela ficar mais linda ainda, só com uma delícias da luke cafeteria! #vempraluke
+rua são cristóvão, 516 lojas qr
+ou pede que a gente entrega #ifood ubereats</t>
+  </si>
+  <si>
+    <t>@ifood @liraf_ ajuda eu, não consigo mandar dm pra vocês</t>
+  </si>
+  <si>
+    <t>@ifood e ai, quando vao resolver meu problema?</t>
+  </si>
+  <si>
+    <t>@casagranderudi até pq como eu vou pedir comida no ifood sem internet? hahahah</t>
+  </si>
+  <si>
+    <t>serio que vc chama isso de almoço @ifood?? https://t.co/dg8910gwps</t>
+  </si>
+  <si>
+    <t>hoje é um dos dias mais difíceis, mas pelo menos fui exaltada com um cupom no ifood e to pagando treixxx reaixxx numa parmegiana</t>
+  </si>
+  <si>
+    <t>hj acordei tão de bom humor que estou até dançando a propaganda do ifood do youtube</t>
+  </si>
+  <si>
+    <t>@ifood já foi bom um dia.
+"olha, um prato por 13,00, vou comprar."
+ifood: pedido minimo, 18.500,00
+🙄🙄🙄🙄🙄</t>
+  </si>
+  <si>
+    <t>ifood me mandou um cupom hoje de 15 reais com pedido mínimo de 17, ifood nunca critiquei</t>
+  </si>
+  <si>
+    <t>ifood me dando 15 reais de cupom.. to vendo ql a sua</t>
+  </si>
+  <si>
+    <t>@mandellivaleria @juziuzi @ifood topissimoooo</t>
+  </si>
+  <si>
+    <t>@mandellivaleria @ifood o pior é q olhei mais cedo e tinham as mesmas coisas</t>
+  </si>
+  <si>
+    <t>@portilhocrvg @ifood segue normal kkkkkk é pq tu n viu o mcflurry q comi em ipa</t>
+  </si>
+  <si>
+    <t>gente plmds de deus só queria um cupomzinho do @ifood sofro</t>
+  </si>
+  <si>
+    <t>gastei um total de 5 reais no almoço, obrigada ifood</t>
+  </si>
+  <si>
+    <t>@ifood eu queria tanto um cuponzinho para alegrar meu dia !!</t>
+  </si>
+  <si>
+    <t>@contreiras_gabi ele ta fazendo comercial do ifood</t>
+  </si>
+  <si>
+    <t>rt @gipsysailor: "tinder lanches"
+até o ifood tá me dando indireta.</t>
+  </si>
+  <si>
+    <t>abriu um japa la perto de casa no ifood que tem um combo de 80 conto...mas velho é tanta coisa mas tanta coisa que dessa vez nem to achando caro</t>
+  </si>
+  <si>
+    <t>como assim @ifood ???? https://t.co/chcgiec387</t>
   </si>
   <si>
     <t>rt @nadiardgs: uber
@@ -396,853 +1400,196 @@
 todos trouxeram serviços antes muito mais caros ou muito menos disponíveis para a camada m…</t>
   </si>
   <si>
-    <t>@marilupus também achei no ifood da minha cidade kkkkk</t>
-  </si>
-  <si>
-    <t>8 da manhã ifood mandando cupom</t>
-  </si>
-  <si>
-    <t>netflix, brigadeiro, ifood e carinho no disfarce.</t>
-  </si>
-  <si>
-    <t>rt @uepedrao: @ifood mãe: cadê o troco q sobrou???
-eu:</t>
-  </si>
-  <si>
-    <t>alguém me dá um cupom no ifood</t>
-  </si>
-  <si>
-    <t>quando eu entrei no ifood eu fiz um post sobre ter mais fé em nós mesmos, sobre o momento em que eu tive fé em mim e eu conquistei algo que nunca acreditaria conseguir. foram 6 meses, e que presente esse semestre.… https://t.co/gvui9iid9m</t>
-  </si>
-  <si>
-    <t>@ohnohangil num deu pra ir me desculpa mas bora pedi um ifood quando cê tiver livre):</t>
-  </si>
-  <si>
-    <t>@ifood me manda um cupom bom pra eu ter um motivo pra gastar dinheiro com vocês hoje</t>
-  </si>
-  <si>
-    <t>@punklixo tavam dando ingressos no ifood se não me engano</t>
-  </si>
-  <si>
-    <t>quando eu entrei no ifood eu fiz um post sobre ter mais fé em nós mesmos, sobre o momento em que eu tive fé em mim e eu conquistei algo que nunca acreditaria conseguir. foram 6 meses, e que presente esse semestre.… https://t.co/hnam2bouvj</t>
-  </si>
-  <si>
-    <t>só eu mesmo para pedir lanche no ifood uma hr dessa kkkl</t>
-  </si>
-  <si>
-    <t>@n0rmanfuckr aff uma merda isso, aqui no rj só pega o ifood mesmo e olhe lá</t>
-  </si>
-  <si>
-    <t>rt @lxxisvttrzz: estamos on no ifood, com promoções de inauguração que vão durar a semana inteira!!! aproveite, abra o app e peça sua porçã…</t>
-  </si>
-  <si>
-    <t>2 sanduíches no subway por 10.00 eu te amo ifood</t>
-  </si>
-  <si>
-    <t>to com cupom no ifood e sozinha em casa ou seja vou almoçar através dessa maravilhosa tecnologia e a mão tremendo pra comer porcaria</t>
-  </si>
-  <si>
-    <t>@ifood eu te amo kkk</t>
-  </si>
-  <si>
-    <t>rt @marilupus: librianas achei um lugar otimo no ifood pra gente https://t.co/wlirvtjdu2</t>
-  </si>
-  <si>
-    <t>@juliasventura @ifood kkkkkkkk oq a fome n faz n é mesmo</t>
-  </si>
-  <si>
-    <t>@passalanorh vcs viram que o ifood irá começar a utilizar drones nas entregas? encurtando o trajeto dos entregadores, pois assim eles só vão precisar levar do drone até as pessoas.
-achei ótimo</t>
-  </si>
-  <si>
-    <t>@luc4sandrey @ifood 9h mano.....</t>
-  </si>
-  <si>
-    <t>eu quando chega o meu pedido do ifood https://t.co/ngkuhonrxi</t>
-  </si>
-  <si>
-    <t>pedindo ifood essa hora da manha jesus</t>
-  </si>
-  <si>
-    <t>o @ifood desistiu de resolver meu problema, não responde às ajudas no app, não dá posição, nada. meses sem poder usar o app.</t>
-  </si>
-  <si>
-    <t>@m__crs n vou negar que fuchiquei o ifood hj, mas me contive</t>
-  </si>
-  <si>
-    <t>loja aberta!
-ou peça pelo ifood, rappi, delivery 
-🍰🍫🧁🍪☕️🛵 em isecake bolos e doces https://t.co/pjvsztquwh</t>
-  </si>
-  <si>
-    <t>pedi hot no ifood e nunca mais chegou porra perdi até a fome</t>
-  </si>
-  <si>
-    <t>ifood deu 15 reais de cupom e pedi uma marmita por 15 reais, obrigada deus</t>
-  </si>
-  <si>
-    <t>putz eu pensei "carai q fome"
-e me apareceu cupom do ifood</t>
-  </si>
-  <si>
-    <t>eu e bibi compramos açaí no ifood uma hora dessa kk 🤦🏻‍♂️😂 #desejos</t>
-  </si>
-  <si>
-    <t>@luc4sandrey @ifood dez da manhã</t>
-  </si>
-  <si>
-    <t>@marijbsk @ifood kakakakakakak exatamente</t>
-  </si>
-  <si>
-    <t>ifood vai me levar à falência</t>
-  </si>
-  <si>
-    <t>a parada me chega aqui meia noite e pouco, han. tava quase dormindo já, ifood de merda</t>
-  </si>
-  <si>
-    <t>#tercadetremurasdv
-#tercaligadajusticasdv
-#tercaheroisdosdv
-#tercaareavipsdv
-bateu aquela fome? márcia e nós do #ifood vamos te ajudar! insira o cupom lrcsvdzjgy e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/9bv707xipx</t>
-  </si>
-  <si>
-    <t>@rodsous4 @legadaodamassa @subwaybrasil @ifood pq tu nao vai buscar entao meu amigo, denúncia revogada</t>
-  </si>
-  <si>
-    <t>@proconspoficial @ifood obrigado pelo apoio ja protocolei   faz umas semanas no procom de jundiaí e com certeza será resolvido</t>
-  </si>
-  <si>
-    <t>@amazonbr @ifood @cvcviagens a cvc tem passagem, hospedagem e aluguel de carro. posso viver bem com isso</t>
-  </si>
-  <si>
-    <t>[17/09/2019 00:18:26]: quer ir dormir?
- [17/09/2019 00:18:54] laura santiago: sla
- [17/09/2019 00:19:00] laura santiago: quero tomar um tiro
- [17/09/2019 00:19:10] laura santiago: será q entregam isso no ifood ?
-drama queen</t>
-  </si>
-  <si>
-    <t>cupom cabify
-código: freeway
-. 
-desconto de 10% em 5 corridas
-. 
-válido até 20/09
-#uber #cabify #easy #99pop #ifood #rappi #eats https://t.co/fsoxx50hfn</t>
+    <t>oi ifood me manda cupom hoje hoje eu quero</t>
+  </si>
+  <si>
+    <t>@ifood vai responder nao @ifood?</t>
+  </si>
+  <si>
+    <t>rt @lpwirgoski: cupom de desconto do ifood https://t.co/mdrtxguekb</t>
+  </si>
+  <si>
+    <t>o entregador do @ifood disse que deixou meu pedido no box e não deixou, deve estar tomando meu açaí de 720ml em algum lugar bem feliz enquanto eu to aqui com raiva e com fome</t>
+  </si>
+  <si>
+    <t>@marialvz tendiii
+eu tenho o ifood mas mal uso k</t>
+  </si>
+  <si>
+    <t>@beelzebia aqueles que o ifood manda que sempre termina com cu
+não sei se tá mais em alta nas sempre rio disso</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? bárbara machado e nós do #ifood vamos te ajudar! insira o cupom rrb68m68nr e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/rw3ptczhub</t>
+  </si>
+  <si>
+    <t>é só o meu ifood que não tá aceitando cupom de 15$ ou o de vocês também? @ifood ajuda nois</t>
+  </si>
+  <si>
+    <t>o @ifood me decepcionando novamente 😭😭</t>
+  </si>
+  <si>
+    <t>@mario_luiz19 @ifood tomara que a analu acabe com todo o seu salário daqui a uns anos, só porque você fica fazendo isso cmg kkk</t>
+  </si>
+  <si>
+    <t>@ifood me dá um ticket pfvr tem 2 semanas q to semm</t>
+  </si>
+  <si>
+    <t>senti fome.
+pensei "estou com fome".
+o celular tocou, era uma notificação do ifood perguntando se eu estava com fome...
+esse fdp está na minha cabeça.</t>
+  </si>
+  <si>
+    <t>meu ifood chegou e quando eu cheguei no térreo reparei que deixei o cartão para trás burro</t>
+  </si>
+  <si>
+    <t>obrigado @ifood  pelo almoço</t>
+  </si>
+  <si>
+    <t>caramba @ifood eu só queria concluir meu pedido 🤬🤬🤬🤬 q q tá acontecendo https://t.co/mafldvgvk5</t>
+  </si>
+  <si>
+    <t>obg ifood pelo meu açaí de 3 reaix</t>
+  </si>
+  <si>
+    <t>so pq eu  nao to comendo bacon o ifood me deu cupom</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? gabrielli e nós do #ifood vamos te ajudar! insira o cupom 33lvwquefb e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/gm4rvgcywf</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete
-picpay  
+rappi:
+gkz310126052 - 30 reais + 150 em frete. 
+picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/uku9xklm4x -&amp;gt; até 179 reais de créditos em hospedagem.</t>
-  </si>
-  <si>
-    <t>@manoelvictor0 @ptrickmartins tá longe mais o ifood te leva</t>
-  </si>
-  <si>
-    <t>@tsabaia @l4isgomes @marciohuser @ifood entendemos thaigo, mas realmente para que possamos te auxiliar com essa questão, vamos pedir que nos contate pelo nosso telefone e o time responsável poderá dar um auxílio mais detalhado, td bem?</t>
-  </si>
-  <si>
-    <t>@ifood 😋 bateu aquela fome</t>
-  </si>
-  <si>
-    <t>@o_bahia_ @ifood aprende a cozinhar caraio</t>
-  </si>
-  <si>
-    <t>@tiagoportare os ifood vai te pega kkkkkkkkkkkkkkk</t>
-  </si>
-  <si>
-    <t>agr q fui ler as respostas do renan lá com o menino da multivix. renan normalmente pede ifood, mas hoje jantou no twitter</t>
-  </si>
-  <si>
-    <t>pq nao tem uma caceta de uma padaria no @ifood, me ajuda ai bixo !</t>
-  </si>
-  <si>
-    <t>rt @arthurpanzaa: meu deus to gastando muito dinheiro pedindo açaí no ifood</t>
-  </si>
-  <si>
-    <t>perdi a chance de comprar duas coxinhas e uma coca por 2,40 porque o ifood não aceita meu cartão débito ai sinceramente</t>
+https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem https://t.co/ciphexywgd</t>
+  </si>
+  <si>
+    <t>@mspeekoni @ifood enquanto isso o motoboy ta comendo minha comida felizão com meu dinheiro o/</t>
+  </si>
+  <si>
+    <t>@ammyteixeira aquele cupom de desconto do ifood...</t>
+  </si>
+  <si>
+    <t>queria baixar ifood, mas o medo de viciar e ficar falida kk</t>
+  </si>
+  <si>
+    <t>nossa @ifood que tamanho de bife. quase morro engasgado. https://t.co/jsrwahdmrq</t>
+  </si>
+  <si>
+    <t>segundo dia tentando um detox de maus hábitos na minha vida e algumas conquistas: dois dias de almoço sem refri, não comprando doce pós almoço e nada de ifood em casa pra jantar.</t>
+  </si>
+  <si>
+    <t>manda o cupom aí @ifood</t>
+  </si>
+  <si>
+    <t>tomara que tua conta no ifood seja excluida https://t.co/z8wlvldav6</t>
+  </si>
+  <si>
+    <t>meu restaurante coreano favorito vai funcionar no ifood a partir de amanhã eu to muito fodida.
+deus por favor me faça ter consciência ao cogitar pedir comida de lá, porque ambos sabemos que é caro e que eu não posso gastar com isso.</t>
+  </si>
+  <si>
+    <t>@ifood relatei uma reclamação por um problema ao tentar fazer um pedidi pelo app. fiz a reclamação no dia 15/09 e ate presente momento ninguem do ifood me respondeu.</t>
+  </si>
+  <si>
+    <t>rt @lxxisvttrzz: estamos on no ifood, com promoções de inauguração que vão durar a semana inteira!!! aproveite, abra o app e peça sua porçã…</t>
+  </si>
+  <si>
+    <t>@tboaventura_ @ifood abre reclamação no procon, dá pra fazer online e eles tem o prazo pra responder e resolver</t>
+  </si>
+  <si>
+    <t>vem almoçar mafriendssss
+rappi $150,00: 9io38644890
+#ifood
+#uber 
+#ubereats
+#rappi
+#cupom
+#99taxi
+#picpay</t>
+  </si>
+  <si>
+    <t>@ifood pq vc me odeia tanto??? eu só queria usar um cupom 😭😭😭 eu to sozinha em casa, tem nada pra comer e meu cartão nao chega por causa da greve dos correios mds o mundo me odeia</t>
+  </si>
+  <si>
+    <t>@ifood me ajuda com o erro de cadastrar o cartão</t>
+  </si>
+  <si>
+    <t>os caras querem regular uber e ifood
+cambada de verme</t>
+  </si>
+  <si>
+    <t>pedi um almoço no ifood até a minha comida é melhor que desse restaurante 😵</t>
+  </si>
+  <si>
+    <t>@ifood qual é o seu problema em fornecer um cupom e quando vai pedir não deixa porque o restaurante não faz parte da promoção, custa colocar quais restaurantes fazem parte?</t>
+  </si>
+  <si>
+    <t>amo ser patrocinada pelo james/ifood/rappi/uber eats. vocês são meus amô &amp;lt;3</t>
+  </si>
+  <si>
+    <t>@imelqui se era pra ser assim, então pq cuidou tão bem de mim??? @ifood</t>
+  </si>
+  <si>
+    <t>[17/9 12:45] joão: aaaaaa tô feliz pq ganhei desconto e só paguei 9 reais no ifood, sou o louco dos descontos
+[17/9 12:46] joão: a minha primeira vez no uber por exemplo foi de graça
+cara eu amo um cupom</t>
+  </si>
+  <si>
+    <t>obg ifood por sempre patriocinar nas quentinhas de 2reais</t>
+  </si>
+  <si>
+    <t>vsf ifood krl deixa eu comprar a porra do lanche https://t.co/ypbbm6eb67</t>
+  </si>
+  <si>
+    <t>pedi um almoço por r$3 reais no ifood, meu dia ta feito</t>
+  </si>
+  <si>
+    <t>@ifood ainda pedi pra minha vovózinha❤️❤️</t>
+  </si>
+  <si>
+    <t>eu pedindo marmita no ifood hoje completamente sequelada se tivesse opção de avaliar o cliente no app eu ia receber -1 de nota kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>comprei meu almoço com 3 reais 
+eu amo o ifood</t>
+  </si>
+  <si>
+    <t>@guszr_ eu ganho um todo dia, do ifood e do rappi. do uber eats tbm</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood
 w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
+rappi:
+gkz310126052 - 30 reais + 150 em frete
+picpay
 cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
 airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/9uvjxt5n8h</t>
-  </si>
-  <si>
-    <t>ifood instigando vagabundo semnorose filhos da puta 
-fiquei meia hora p pedir o bgl p na hora de finalizar os cara n aceitar cupom</t>
-  </si>
-  <si>
-    <t>@marciohuser @tsabaia @ifood @nubank por “sorte” a cobrança foi no meu cartão santander. abri um desacordo comercial no sábado e hoje a cobrança foi cancelada.</t>
-  </si>
-  <si>
-    <t>ifood mandou cupom de 15 reais justo hj que acordei puta da vida e tenho um dia fodido na faculdade ficaria feliz se eu tivesse dinheiro pra usar o cupom</t>
-  </si>
-  <si>
-    <t>ifood disponibiliza versão mais leve do app para levar a experiência a mais pessoas - https://t.co/g4bb70yrvw https://t.co/t3pruixeqo</t>
-  </si>
-  <si>
-    <t>hoje vai ser o primeiro dia no ifood, que dê tudo certo! fé 🤦🏼‍♂️🙇‍♂️</t>
-  </si>
-  <si>
-    <t>@lauraburrabueno @ifood obrigada, achei que era so comigoo</t>
-  </si>
-  <si>
-    <t>recebendo cupom de 15 reais do ifood as 8:40 da manhã pra chegar 12h e não ser mais válido</t>
-  </si>
-  <si>
-    <t>rt @jesscaviana: a não ser que a moto seja do ifood ai a gente gosta também https://t.co/4ehlbgt9ta</t>
-  </si>
-  <si>
-    <t>@mytkaprincesa achava q ja estavamos namorando... tava esperando o ifood</t>
-  </si>
-  <si>
-    <t>pedi um lanche no ifood 1:00hr já vai dá 2 😭</t>
-  </si>
-  <si>
-    <t>@meldelas pra mim nunca pagou ifood nessa merda</t>
-  </si>
-  <si>
-    <t>orra pedi um ifood e o restaurante cancelou 😡</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/zdnaqlhb8r</t>
-  </si>
-  <si>
-    <t>ah não, prefiro pedir no ifood https://t.co/gtg7ltimac</t>
-  </si>
-  <si>
-    <t>vamo casa ifood gostosinho https://t.co/juepj4k2oo</t>
-  </si>
-  <si>
-    <t>@vicksiebra ohf 
-sei exatamente como é isso. soq o zina apareceu na minha vida bem cedo e supria dmais essa necessidade. 
-also, eu posso te dar carinho. só tem q esperar minhas provas acabarem. 
-habilidades: 
-dormir de conchinha
-ajudar a escolher rango no ifood
-beijinhos na testa infinito +</t>
-  </si>
-  <si>
-    <t>era só umas gg de ifood na minha vida</t>
-  </si>
-  <si>
-    <t>@paulogpcjr uber eats diz: "eu vi que vc apagou as fotos do ifood. está tudo bem? toma esse cupom de r$10"</t>
-  </si>
-  <si>
-    <t>corpo dela de grávida é mais bonito que o meu que só tem ifood sad 😢 https://t.co/fowljeidbx</t>
-  </si>
-  <si>
-    <t>cupom 99 pop porto alegre
-. 
-código: eusoudosul99
-. 
-#uber #cabify #easy #99pop #ifood #rappi #eats https://t.co/euteuyxfuj</t>
-  </si>
-  <si>
-    <t>a parte ruim de morar em favela é q o ifood n entrega 🤦🏾‍♀️</t>
-  </si>
-  <si>
-    <t>@vyniciusmarcus logo tu, trem do ifood, rei do centro e n sabe chegar lá?</t>
-  </si>
-  <si>
-    <t>ifood cade meu cupom pra almoçar cade cade cade</t>
-  </si>
-  <si>
-    <t>@santosctms pedi japa ontem no ifood era 12 hs, desci 13:30 p almoçar e não tinha chego, pior q até p cancelar é uma bosta</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/4e3daef2og</t>
-  </si>
-  <si>
-    <t>so estou passando aqui para dizer que eu odeio a propaganda do ifood no youtube...</t>
-  </si>
-  <si>
-    <t>rt @gelingerjunior: escolher alguma coisa no ifood é a pior coisa do mundo kkkkkkkk https://t.co/lpscpmp8zq</t>
-  </si>
-  <si>
-    <t>cupom de desconto rappi:
-gkz310126052
-ganhe r$150 em frete + r$30 para usar como quiser.  baixe o app e use o código: gkz310126052 https://t.co/l9dei5ofbw #rappi #ifood #ubereats #pedeumrappi #tercadetremurasdv #tercou #bomdia #afazenda11 #maisvoce</t>
-  </si>
-  <si>
-    <t>to ferrada,meu cartão vai vim só ifood no boleto 😂😂</t>
-  </si>
-  <si>
-    <t>@ifood @ifood será que vc vai me responder dm hoje?</t>
-  </si>
-  <si>
-    <t>vou ver se consigo pedir algum açaí no uber eats ou ifood agr 😅</t>
-  </si>
-  <si>
-    <t>acabei de comer um cachorro quente por apenas 1 real, obrigado pelo mimo @ifood</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? joão e nós do #ifood vamos te ajudar! insira o cupom rvrskr3bz8 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/hrsjcb5r5q</t>
-  </si>
-  <si>
-    <t>rt @annanaoexiste: acabei de me deparar no ifood com uma hamburgueria chamada hamburguês safado
-pedi o lanche comunista e de sobremesa um…</t>
-  </si>
-  <si>
-    <t>amazon agora tem um mapa "ao vivo" tipo ifood nas entregas feitas por eles. chega de ficar em casa igual um animal esperando pacotes</t>
-  </si>
-  <si>
-    <t>vcs ainda pedem ifood pq nunca pediram uber eats.</t>
-  </si>
-  <si>
-    <t>mano até ifood tem taxa de entrega, e o povo não quer pagar nem um uberzinho...</t>
-  </si>
-  <si>
-    <t>alô @ifood eu fiz um pedido com vcs em 15/09-ped #0828, veio faltando um lanche, pedi ajuda, mas vcs não atenderam e até hoje não retornaram! tive que sair pra comprar o que faltava. além disso perdi dinheiro, porque paguei por algo que não recebi! #ifoodnuncamais. fica a dica!</t>
-  </si>
-  <si>
-    <t>só na espera do ifood 🍔🍕🍔🍕</t>
-  </si>
-  <si>
-    <t>depois de 3mil anos eu fui aprovado no ifood</t>
-  </si>
-  <si>
-    <t>@jaysonhigor2 vê no ifood padrinho ... tem restaurante q talvez entregue rss ou pega um uber e vai lá no habib's</t>
-  </si>
-  <si>
-    <t>recebo tanto desconto do ifood, que daqui a pouco até café da manhã compro por lá</t>
-  </si>
-  <si>
-    <t>ganhei cupom de 15 reais no ifood, deus eh justo vou pedir lanche hj</t>
-  </si>
-  <si>
-    <t>eu sei se peço comida japonesa pelo ifood para comer de almoço ou se peço lanche ou os dois</t>
-  </si>
-  <si>
-    <t>@anevipx @lwithp e precisa?  ifood ta ai pra isso, até la vai ter ifood vindo de drone, e cama ja terá tudo1🤩</t>
-  </si>
-  <si>
-    <t>@azevedo_caio29 tava mermo, mas acabei de pedir um aq no ifood</t>
-  </si>
-  <si>
-    <t>ifood mandando cupom de 15 reais de desconto às 9h24 da manhã kkkkk ok</t>
-  </si>
-  <si>
-    <t>era só uma coroa rica pedindo um ifood, dps a conta eu deixo com os cria aí que se amarra</t>
-  </si>
-  <si>
-    <t>essa hora o ifood mandando cupom de 15 reais e eu me sentindo quase que na obrigação de usar</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/m1hzvr69qp</t>
-  </si>
-  <si>
-    <t>eu só queria uma namorada, nem precisa se garantir na cozinha, a gente pede os ifood da vida e fazendo só o básico na cozinha pra viver já tá bom https://t.co/paxp2xbpme</t>
-  </si>
-  <si>
-    <t>@victorlaskowsky era só fazer uma janta que não seja ifood, fazer a chuca bem feita, raspar o cuzinho (mas na moral na cera e tudo), passar um hidratante cheiroso e pra mim já tava ótimo</t>
-  </si>
-  <si>
-    <t>@prisciio amor passou o surto estou saudavel novamente vc quer ifood pra me aturar?</t>
-  </si>
-  <si>
-    <t>acabei de pedir um almoço por apenas 4,90. não costumo usar o ifood. mas com esse preço nem vale a pena cozinhar</t>
-  </si>
-  <si>
-    <t>algum feministo online pra me mandar um lanche pelo ifood agorinha? 😍🙏🤩</t>
-  </si>
-  <si>
-    <t>@annabissoni aí amiga tive que já deixar o ifood agendado</t>
-  </si>
-  <si>
-    <t>dando uns perdidos no ifood atas de açaí</t>
-  </si>
-  <si>
-    <t>rt @snoop_dogg09: era só uma promoção no ifood</t>
-  </si>
-  <si>
-    <t>ontem minha cunhada tava mó triste né, daí fui lá e mandei um ifood p ela, espero ter conquistado de vez 🙏🏽</t>
-  </si>
-  <si>
-    <t>rt @guitadeum: to sentindo q uma hora ou outra esse patrocínio do ifood vai chegar pra mim tmbbb, fé</t>
-  </si>
-  <si>
-    <t>pedi meu café da manhã no ifood e ta demorando tanto, socorro to com fome</t>
-  </si>
-  <si>
-    <t>@crvgrsp @legadaodamassa @subwaybrasil @ifood desculpa se as vezes eu to com preguiça caraiooooooooooooooooo</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/xr0egrxfih</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/7bfol2cqb6</t>
-  </si>
-  <si>
-    <t>rt @gifsdeanimal: motoboy do ifood
-- a sua rua é perigosa? 
-- é tranquila da pra vir de boa
-rua: https://t.co/wn4nmmnw8r</t>
-  </si>
-  <si>
-    <t>rt @rubiraaa: devia existir um aplicativo que bloqueia o ifood e uber eats qnd vc ta laricado pq nao aguento mais gastar todo meu dinheiro…</t>
-  </si>
-  <si>
-    <t>@nelsonram2 @ifood @batatainglesa @cmoderno lamentável o erro do "aplicativo". todos perderam, mas quem foi o maior prejudicado foi o consumidor que ficou frustrado e com fome!</t>
-  </si>
-  <si>
-    <t>minha esperanca e tdo dia o ifood me mandar um cupom p eu n passar fome</t>
-  </si>
-  <si>
-    <t>vou almocar por 2,99 valeu ifood</t>
-  </si>
-  <si>
-    <t>@fernondaa @ifood eu também!!! @ifood pq vc faz isso comigo?</t>
-  </si>
-  <si>
-    <t>esperando o meu lanche do ifood em plena 00:40 com medo de ir buscar e o cara me sequestrar porem a fome ta grande</t>
-  </si>
-  <si>
-    <t>@itsbeatrixb @lelexia_alves oloco meu sonho, eu engordei 5kg so de olhar o ifood</t>
-  </si>
-  <si>
-    <t>rt @reallucasrocha: gata eu n sei cozinhar, mas sei pedir um ifood como ninguém...</t>
-  </si>
-  <si>
-    <t>ifood me deixou na mão, vou agitar algo depois</t>
-  </si>
-  <si>
-    <t>amo quando meu amor faz minhas vontades, falei que estava com vontade de comer hot philadelphia e ele pediu no ifood 😍👍🏻❤️</t>
-  </si>
-  <si>
-    <t>senhor afasta de mim essa vontade de gastar com @ifood e @ubereats</t>
-  </si>
-  <si>
-    <t>@abclarinha @ifood tava com fome😞</t>
-  </si>
-  <si>
-    <t>@fumacy olha essa safadeza, dão cupom pra que @ifood</t>
-  </si>
-  <si>
-    <t>rt @jubslandia_: meu passatempo agora é olhar avaliações do ifood
-amei a resposta do restaurante https://t.co/pv1zi4hylv</t>
-  </si>
-  <si>
-    <t>ifood lança versão mais leve do aplicativo para smartphones android - apps - canaltech https://t.co/vkioz8c7bx https://t.co/qomirdekvx</t>
-  </si>
-  <si>
-    <t>@ifood 
-'cê fica milu, milu me iludindo
-e eu fico no, fico no bar caindo
-'cê fica milu, milu e me iludindo
-e eu fico no, fico no bar caindo https://t.co/cfnxoctvn4</t>
-  </si>
-  <si>
-    <t>to me torturando vendo comida no ifood essas horas</t>
-  </si>
-  <si>
-    <t>oficialmente cadastrados no ifood, d'usgu delivery vem com tudo! bom dia! 🙏</t>
-  </si>
-  <si>
-    <t>entregador do @ifood dando notícias dos meus pedidos pra um conhecido meu q tenho pouco contato. achei bem sem noção!</t>
-  </si>
-  <si>
-    <t>alguém manda um açaí do ifood pra mim sério fiquei com vontade :(</t>
-  </si>
-  <si>
-    <t>gabriel reclama que não sou romântica mas quando eu faço surpresa pra ele e peço pra entregarem comida , ele dispensa o motoboy. olha, sinceramente...
-tem romantismo maior do que pedir comida a distância pelo ifood? me valorize, homem</t>
-  </si>
-  <si>
-    <t>rt @thiagopeniche: *ouve barulho de moto* caralho é assalto fudeu 
-*passa a moto do ifood*
-graças a deus...
-[e assim segue mais um dia nor…</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/pvwblaps7y</t>
-  </si>
-  <si>
-    <t>@maikocunha321 @flaviogarage o foda que a maioria das pessoas que trabalham nos aplicativos, uber, ifood etc. tao por nao conseguirem emprego e la tem uma fonte de renda, eles querem que o preço da comida caia, so compra com cupom mas acha ruim que o entregador ganhe pouco, pagar frete ninguém quer ne</t>
-  </si>
-  <si>
-    <t>so tem merda no ifood hoje a noite e oq tem de bom so aceita pagamento pelo app merdaaaaa</t>
-  </si>
-  <si>
-    <t>rt @fosklantejoula: pelo menos eu sei fazer comida criminalmente bem 
-fodase o ifood</t>
-  </si>
-  <si>
-    <t>uma das maiores decepções da vida é achar um restaurante novo no ifood, ficar com vontade, enrolar um pouco e quando for comprar, está fechado. pqp</t>
-  </si>
-  <si>
-    <t>hoje eu descobri que o ifood entrega na minha casa e meu gato dormiu no meu rosto, bom d+</t>
-  </si>
-  <si>
-    <t>ifood salvando a fome da madrugada, pedi um combo de hambúrgueres e batata frita com bacon cheddar baratinho e uma delícia 🐳🤤🤤😋</t>
-  </si>
-  <si>
-    <t>ifood vai me levar a falência</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/9ekkw0rddb</t>
-  </si>
-  <si>
-    <t>rt @jovemgab7: 8 da manhã ifood mandando cupom</t>
-  </si>
-  <si>
-    <t>rt @__tiaju: netflix, brigadeiro, ifood e carinho no disfarce.</t>
-  </si>
-  <si>
-    <t>meu @ifood  chegou 🥰 recomendo 😋 https://t.co/yzrqgoejjs</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/urv6fuew9u</t>
-  </si>
-  <si>
-    <t>@carouuuu_ ok eh uma facada mas no ifood eu vi ontem com trinta e seis eu fiquei ???????</t>
-  </si>
-  <si>
-    <t>o ifood acha que eu sou otaria https://t.co/imtihgjaq4</t>
-  </si>
-  <si>
-    <t>to quase desinstalando o ifood se deixar to comendo japa td dia</t>
-  </si>
-  <si>
-    <t>pedi 4 pastel no ifood uma hr dessa kkkk que delícia</t>
-  </si>
-  <si>
-    <t>"que absurdo, e o emprego daqueles jovens que tiram o sustento fazendo entregas de bicicleta?"
-soça que até ontem reclamava que ifood happi e uber exploram as pessoas https://t.co/gehqnmzqif</t>
-  </si>
-  <si>
-    <t>ifood me mandando cupom de 15 reais às 9 da manhã 
-não podia ter sido ao meio dia?????????</t>
-  </si>
-  <si>
-    <t>@pampinhos credo. parece o dia q eu levantei p ir comer e a siri sugeriu q eu usasse o ifood</t>
-  </si>
-  <si>
-    <t>r$ 6,90 pra entregar um trem que o restaurante ta a 1 km de distancia é serio?????? @ifood</t>
-  </si>
-  <si>
-    <t>@malelelis @ifood agradecido</t>
-  </si>
-  <si>
-    <t>*ouve barulho de moto* caralho é assalto fudeu 
-*passa a moto do ifood*
-graças a deus...
-[e assim segue mais um dia normal na vida do jovem carioca]</t>
-  </si>
-  <si>
-    <t>ifood lança versão mais leve do seu app para celulares baratinhos - https://t.co/1edf7lzrlj https://t.co/2xz1fidlzf</t>
-  </si>
-  <si>
-    <t>fiz prova hoje e a unica coisa que pode melhorar meu dia eh alguem manda sei la dois ifood com sushi pra minha casa</t>
-  </si>
-  <si>
-    <t>pedi uma coisinha no ifood e o, os motoboy são muito pelo corre certo, chovendo pra crl eles no corre.... peguei meu rango no conforto da minha casa numa chuva de mil e o mano todo molhado, tá aí uma das profissões q não tem diploma mas tbm deveriam ser reconhecidas tanto quanto</t>
-  </si>
-  <si>
-    <t>colocaram meu número da ifood  toma no cu, toda hora alguém manda msg querendo lanche 😤😠</t>
-  </si>
-  <si>
-    <t>irmão, ifood é um bgl de doido. 
-você fica viciado em pedir comida, não é nem em comer, mas sim em pedir, montar oq você quer, ver as promoções... que bgl do demônio</t>
-  </si>
-  <si>
-    <t>ifood mandando cupom essa hora, tem nem nada aberto</t>
-  </si>
-  <si>
-    <t>me enrolei pra pedir um ifood e agr só tem coisa merda</t>
-  </si>
-  <si>
-    <t>acabei de pedir um ifood ainda bem que conseguir algo aberto se não ia ficar indignada não pelo lanche e sim pela coca kkkkk</t>
-  </si>
-  <si>
-    <t>que isso ifood me deu um cupom de desconto de 15 reais</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/dxvg6xurh6</t>
-  </si>
-  <si>
-    <t>meu deus agora o cuscuz tá no ifood meu sonho realizado</t>
-  </si>
-  <si>
-    <t>mds eu n posso gastar mais um real no ifood e nem c bebidas</t>
-  </si>
-  <si>
-    <t>ifood eu não quero esse loop, eu quero cupom. não tem ifood loop no fim do mundo onde eu moro me manda cupom</t>
-  </si>
-  <si>
-    <t>salmão grelhado caprezii por r$ 20,00 é o sonho do jovem moderno, obrigado @ifood</t>
-  </si>
-  <si>
-    <t>pq n consigo pedir nada com pagamento online nesse site merda q vcs colocam no ar? @ifood</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? vitória vesz e nós do ifood vamos te ajudar!</t>
-  </si>
-  <si>
-    <t>dia de pagar fatura é sempre muito triste. gastei muito e  desnecessariamente com 99 e ifood.</t>
-  </si>
-  <si>
-    <t>só uma tortinha de maçã do mc me deixaria contente agora....ifood pf manda mimos</t>
-  </si>
-  <si>
-    <t>recebi um cupom do ifood, já fazer 84 anos desde a última vez que ganhei um</t>
-  </si>
-  <si>
-    <t>@ifood vocês são grossos demais e o atendimento nem se fala, decepção!</t>
-  </si>
-  <si>
-    <t>meu white girl problem de hj é que esqueci de agendar meu almoço amanhã no ifood loop que era só até 00h 😭😭 sem tempo pra fazer almoço amanhã, irmão. farmaco tá gritando mais alto</t>
-  </si>
-  <si>
-    <t>fui tentar pedir comida pelo ifood e ainda bem que meu cartão não pegou</t>
-  </si>
-  <si>
-    <t>-oq vc tem a oferecer?
--o dedo mais rápido no ifood bb https://t.co/hery8mibyv</t>
-  </si>
-  <si>
-    <t>prefiro o macarrão caseiro. abrimos um ifood: “massas proletárias” https://t.co/ebuwunczvz</t>
-  </si>
-  <si>
-    <t>clonaram meu cartao e gastaram 300 pila em ifood..deve ter mais de 100 kilos o fdp</t>
-  </si>
-  <si>
-    <t>cheio de fome, pedi uma pizza no ifood 🤤</t>
-  </si>
-  <si>
-    <t>ai ifood me presenteou com uma quentinha por 2,50 
-os humilhados sendo exaltados</t>
-  </si>
-  <si>
-    <t>rt @curtovcs: só eu que fico xingando os anúncios do youtube? 
-anúncio: ifood
-eu: ifood teu cu fdp</t>
-  </si>
-  <si>
-    <t>@marijbsk @ifood eu sei fazer miojo isso não é cozinhar, pedir comida tb deveria ser um tipo de culinária</t>
-  </si>
-  <si>
-    <t>alguma pessoa com pensamento social pra mandar um ifood na casa de um pobre e faminto rapaz(eu no caso)</t>
-  </si>
-  <si>
-    <t>esperando minha mãe mandar foto do cartão pra eu comprar meu ifood por 3 reais</t>
-  </si>
-  <si>
-    <t>queria pedi vc no ifood</t>
-  </si>
-  <si>
-    <t>esse cupom do ifood de 15 reais é uma das melhores coisas já inventadas</t>
-  </si>
-  <si>
-    <t>rt @thaesvasc: tenho que excluir o ifood do meu celular 
-qualquer pico de tristeza: preciso comer algo gostoso</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/yfrahjrw0o</t>
-  </si>
-  <si>
-    <t>daora fazer um pedido no ifood e ele nunca chegar</t>
-  </si>
-  <si>
-    <t>@pirigoth15 comer um lanchão no ifood</t>
-  </si>
-  <si>
-    <t>pagamento de passagem de ônibus com cartão de crédito e débito e ifood testando entrega com drone pqp</t>
-  </si>
-  <si>
-    <t>eu do é pala dos garçom, porteiro, cliente e demais q menosprezam os cara q rala no ifood kklk, nós ganha mais q a maioria desses fdp fuma maconha e come lanches o dia inteiro kk quer mais oq fiote?</t>
-  </si>
-  <si>
-    <t>reclamei ontem que o ifood não me dava cupom e hoje eles me mandam de 15 reais. eles estão nos ouvindo</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/zxdogw89aw</t>
-  </si>
-  <si>
-    <t>rt @ramosbrunow: imagina um jacaré olhando isso 
-“porra, olha lá, meu ifood chegou” https://t.co/jcchtep3qd</t>
-  </si>
-  <si>
-    <t>recebi um cupom de 15 do ifood e vou pagar 5 reais no pedido na marmitaria vegana que eu gosto</t>
-  </si>
-  <si>
-    <t>rt @alisonpinto_: pedi uma coisinha no ifood e o, os motoboy são muito pelo corre certo, chovendo pra crl eles no corre.... peguei meu rang…</t>
-  </si>
-  <si>
-    <t>oier lindos @ifood. queria dizer que estava andando aqui na vila olímpia e vi uma bag de entregador jogada em um canteiro, quando entrei na travessa da rua que trabalho, tinham vááárias bags de vcs jogadas na calçada :(</t>
-  </si>
-  <si>
-    <t>alguém manda um ifood😣🙏🏻</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/qe2cggzt4r -&amp;gt; até 179 reais de créditos em hospedagem. https://t.co/9sehlaqd3a</t>
-  </si>
-  <si>
-    <t>@mucioficent @butedo graças a deus existe uma coisa chamada ifood que leva meu salário do mês todinho embora mas pelo menos mata a minha fome</t>
-  </si>
-  <si>
-    <t>vou pedir um ifood tomara que já tenha lugar aberto</t>
-  </si>
-  <si>
-    <t>bom dia, hoje tem empada naquele mesmo esquema de sempre:
-frango
-queijo
-leite condensado
-brigadeiro 
-5,00
-aceitamos crédito e débito também.
-estamos no ifood e uber, e na frente da faculdade de arquitetura também.
-a partir das 12:00!! https://t.co/yewp1setdk</t>
-  </si>
-  <si>
-    <t>@kkkgusta @maary_porto0 @ifood amanhã tu paga na bico 🤪</t>
-  </si>
-  <si>
-    <t>ai que tédio
-vou pedir um ifood</t>
-  </si>
-  <si>
-    <t>@luc4sandrey @ifood tu tá gordo carai</t>
-  </si>
-  <si>
-    <t>eu quero ter dinheiro suficiente pra compra um ifood e n me arrepender no mesmo segundo</t>
-  </si>
-  <si>
-    <t>pedi um japa pelo ifood, o foda é que to quase capotando</t>
-  </si>
-  <si>
-    <t>rt @professoralolly: so tem merda no ifood hoje a noite e oq tem de bom so aceita pagamento pelo app merdaaaaa</t>
-  </si>
-  <si>
-    <t>@ifood pq me negastes cupom</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood
-w75zj7cyem  - 10 reais no seu primeiro pedido  
-rappi: 
-gkz310126052 - 30 reais + 150 em frete.
-picpay: 
-cjytau - ganhe credito para fazer pagamentos, recargas e muito mais.
-airbnb:
-https://t.co/uku9xklm4x -&amp;gt;  até 179 reais de créditos em hospedagem</t>
-  </si>
-  <si>
-    <t>IMPOSSIVEL SABER</t>
+https://t.co/opgwjmkqid -&amp;gt; até 179 reais de créditos em hospedagem! https://t.co/msgnq2ulij</t>
+  </si>
+  <si>
+    <t>ifood leva meu pg todo 😍</t>
+  </si>
+  <si>
+    <t>RUIM</t>
+  </si>
+  <si>
+    <t>CUPOM</t>
   </si>
   <si>
     <t>BOM</t>
+  </si>
+  <si>
+    <t>IRRELEVANTE</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C311"/>
+  <dimension ref="A1:C437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1622,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1630,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1638,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1646,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1654,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1662,7 +2009,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1670,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1678,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1686,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1694,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1702,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1710,7 +2057,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1718,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1726,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1734,7 +2081,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1742,7 +2089,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1750,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1758,7 +2105,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1766,7 +2113,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1774,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1782,7 +2129,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1790,7 +2137,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1798,7 +2145,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1806,7 +2153,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1814,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1822,7 +2169,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1830,7 +2177,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1838,7 +2185,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1846,7 +2193,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1854,7 +2201,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1862,7 +2209,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1870,7 +2217,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1878,7 +2225,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1886,7 +2233,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1894,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1902,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1910,7 +2257,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1918,7 +2265,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1926,7 +2273,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1934,7 +2281,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1942,7 +2289,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1950,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1958,7 +2305,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1966,7 +2313,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1974,7 +2321,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1982,7 +2329,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1990,7 +2337,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1998,7 +2345,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2006,7 +2353,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2014,7 +2361,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2022,7 +2369,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2030,7 +2377,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2038,7 +2385,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2046,7 +2393,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2054,7 +2401,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2062,7 +2409,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2070,7 +2417,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2078,7 +2425,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2086,7 +2433,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2094,7 +2441,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2102,7 +2449,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2110,7 +2457,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2118,7 +2465,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2126,7 +2473,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2134,7 +2481,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2142,7 +2489,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2150,7 +2497,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2158,7 +2505,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2166,7 +2513,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2174,7 +2521,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2182,7 +2529,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2190,7 +2537,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2198,7 +2545,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2206,7 +2553,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2214,7 +2561,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2222,7 +2569,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2230,7 +2577,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2238,7 +2585,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2246,7 +2593,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2254,7 +2601,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2262,7 +2609,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2270,7 +2617,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2278,7 +2625,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2286,7 +2633,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2294,7 +2641,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2302,7 +2649,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2310,7 +2657,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2318,7 +2665,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2326,7 +2673,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2334,7 +2681,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2342,7 +2689,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2350,7 +2697,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2358,7 +2705,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2366,7 +2713,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2374,7 +2721,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2382,7 +2729,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2390,7 +2737,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2398,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2406,7 +2753,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2414,7 +2761,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2422,7 +2769,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2430,7 +2777,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2438,7 +2785,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2446,7 +2793,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2454,7 +2801,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2462,7 +2809,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2470,7 +2817,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2478,7 +2825,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2486,7 +2833,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2494,7 +2841,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2502,7 +2849,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2510,7 +2857,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2518,7 +2865,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2526,7 +2873,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2534,7 +2881,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2542,7 +2889,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2550,7 +2897,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2558,7 +2905,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2566,7 +2913,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2574,7 +2921,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2582,7 +2929,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2590,7 +2937,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2598,7 +2945,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2606,7 +2953,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2614,7 +2961,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2622,7 +2969,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2630,7 +2977,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2638,7 +2985,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2646,7 +2993,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2654,7 +3001,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2662,7 +3009,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2670,7 +3017,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2678,7 +3025,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2686,7 +3033,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2694,7 +3041,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2702,7 +3049,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2710,7 +3057,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2718,7 +3065,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2726,7 +3073,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2734,7 +3081,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2742,7 +3089,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2750,7 +3097,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2758,7 +3105,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2766,7 +3113,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2774,7 +3121,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2782,7 +3129,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2790,7 +3137,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2798,7 +3145,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2806,7 +3153,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2814,7 +3161,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2822,7 +3169,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2830,7 +3177,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2838,7 +3185,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2846,7 +3193,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2854,7 +3201,7 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2862,7 +3209,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2870,7 +3217,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2878,7 +3225,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2886,7 +3233,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2894,7 +3241,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2902,7 +3249,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2910,7 +3257,7 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2918,7 +3265,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2926,7 +3273,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2934,7 +3281,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2942,7 +3289,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2950,7 +3297,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2958,7 +3305,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2966,7 +3313,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2974,7 +3321,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2982,7 +3329,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2990,7 +3337,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2998,7 +3345,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3006,7 +3353,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3014,7 +3361,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3022,7 +3369,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3030,7 +3377,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3038,7 +3385,7 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3046,7 +3393,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3054,7 +3401,7 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3062,7 +3409,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3070,7 +3417,7 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3078,7 +3425,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3086,7 +3433,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3094,7 +3441,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3102,7 +3449,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3110,7 +3457,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3118,7 +3465,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3126,7 +3473,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3134,7 +3481,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3142,7 +3489,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3150,7 +3497,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3158,7 +3505,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3166,7 +3513,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3174,7 +3521,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3182,7 +3529,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3190,7 +3537,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3198,7 +3545,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3206,7 +3553,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3214,7 +3561,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3222,7 +3569,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3230,7 +3577,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3238,7 +3585,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3246,7 +3593,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3254,7 +3601,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3262,7 +3609,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3270,7 +3617,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3278,7 +3625,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3286,7 +3633,7 @@
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3294,7 +3641,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3302,7 +3649,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3310,7 +3657,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3318,7 +3665,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3326,7 +3673,7 @@
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3334,7 +3681,7 @@
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3342,7 +3689,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3350,7 +3697,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3358,7 +3705,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3366,7 +3713,7 @@
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3374,7 +3721,7 @@
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3382,7 +3729,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3390,7 +3737,7 @@
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3398,7 +3745,7 @@
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3406,7 +3753,7 @@
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3414,7 +3761,7 @@
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3422,7 +3769,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3430,7 +3777,7 @@
         <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3438,7 +3785,7 @@
         <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3446,7 +3793,7 @@
         <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3454,7 +3801,7 @@
         <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3462,7 +3809,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3470,7 +3817,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3478,7 +3825,7 @@
         <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3486,7 +3833,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3494,7 +3841,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3502,7 +3849,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3510,7 +3857,7 @@
         <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3518,7 +3865,7 @@
         <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3526,7 +3873,7 @@
         <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3534,7 +3881,7 @@
         <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3542,7 +3889,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3550,7 +3897,7 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3558,7 +3905,7 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>313</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3566,7 +3913,7 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3574,7 +3921,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3582,7 +3929,7 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3590,7 +3937,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3598,7 +3945,7 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3606,7 +3953,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3614,7 +3961,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3622,7 +3969,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3630,7 +3977,7 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3638,7 +3985,7 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3646,7 +3993,7 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3654,7 +4001,7 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3662,7 +4009,7 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3670,7 +4017,7 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3678,7 +4025,7 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3686,7 +4033,7 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3694,7 +4041,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3702,7 +4049,7 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3710,7 +4057,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3718,7 +4065,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3726,7 +4073,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3734,7 +4081,7 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3742,7 +4089,7 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3750,7 +4097,7 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3758,7 +4105,7 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3766,7 +4113,7 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3774,7 +4121,7 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3782,7 +4129,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3790,7 +4137,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3798,7 +4145,7 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3806,7 +4153,7 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3814,7 +4161,7 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3822,7 +4169,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3830,7 +4177,7 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3838,7 +4185,7 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3846,7 +4193,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3854,7 +4201,7 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3862,7 +4209,7 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3870,7 +4217,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3878,7 +4225,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3886,7 +4233,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3894,7 +4241,7 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3902,7 +4249,7 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3910,7 +4257,7 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3918,7 +4265,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3926,7 +4273,7 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3934,7 +4281,7 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3942,7 +4289,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3950,7 +4297,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3958,7 +4305,7 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3966,7 +4313,7 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3974,7 +4321,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3982,7 +4329,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3990,7 +4337,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3998,7 +4345,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4006,7 +4353,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4014,7 +4361,7 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4022,7 +4369,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4030,7 +4377,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4038,7 +4385,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4046,7 +4393,7 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4054,7 +4401,7 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4062,7 +4409,7 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4070,7 +4417,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4078,7 +4425,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>313</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4086,7 +4433,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4094,7 +4441,1015 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
         <v>313</v>
+      </c>
+      <c r="C312" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>314</v>
+      </c>
+      <c r="C313" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>315</v>
+      </c>
+      <c r="C314" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>316</v>
+      </c>
+      <c r="C315" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="C316" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>318</v>
+      </c>
+      <c r="C317" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>319</v>
+      </c>
+      <c r="C318" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>320</v>
+      </c>
+      <c r="C319" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>321</v>
+      </c>
+      <c r="C320" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>322</v>
+      </c>
+      <c r="C321" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>323</v>
+      </c>
+      <c r="C322" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>324</v>
+      </c>
+      <c r="C323" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>325</v>
+      </c>
+      <c r="C324" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>326</v>
+      </c>
+      <c r="C325" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="C326" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>328</v>
+      </c>
+      <c r="C327" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>329</v>
+      </c>
+      <c r="C328" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>330</v>
+      </c>
+      <c r="C329" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>331</v>
+      </c>
+      <c r="C330" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>332</v>
+      </c>
+      <c r="C331" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>333</v>
+      </c>
+      <c r="C332" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>334</v>
+      </c>
+      <c r="C333" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>335</v>
+      </c>
+      <c r="C334" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>336</v>
+      </c>
+      <c r="C335" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>337</v>
+      </c>
+      <c r="C336" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>338</v>
+      </c>
+      <c r="C337" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>339</v>
+      </c>
+      <c r="C338" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>340</v>
+      </c>
+      <c r="C339" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>341</v>
+      </c>
+      <c r="C340" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>342</v>
+      </c>
+      <c r="C341" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>343</v>
+      </c>
+      <c r="C342" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="C343" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>345</v>
+      </c>
+      <c r="C344" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>346</v>
+      </c>
+      <c r="C345" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>347</v>
+      </c>
+      <c r="C346" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>348</v>
+      </c>
+      <c r="C347" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>349</v>
+      </c>
+      <c r="C348" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>350</v>
+      </c>
+      <c r="C349" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>351</v>
+      </c>
+      <c r="C350" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>352</v>
+      </c>
+      <c r="C351" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>353</v>
+      </c>
+      <c r="C352" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>354</v>
+      </c>
+      <c r="C353" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>355</v>
+      </c>
+      <c r="C354" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>356</v>
+      </c>
+      <c r="C355" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>357</v>
+      </c>
+      <c r="C356" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>358</v>
+      </c>
+      <c r="C357" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>359</v>
+      </c>
+      <c r="C358" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>360</v>
+      </c>
+      <c r="C359" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="C360" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>362</v>
+      </c>
+      <c r="C361" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>363</v>
+      </c>
+      <c r="C362" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>364</v>
+      </c>
+      <c r="C363" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>365</v>
+      </c>
+      <c r="C364" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>366</v>
+      </c>
+      <c r="C365" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>367</v>
+      </c>
+      <c r="C366" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="C367" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>369</v>
+      </c>
+      <c r="C368" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>370</v>
+      </c>
+      <c r="C369" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>371</v>
+      </c>
+      <c r="C370" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>372</v>
+      </c>
+      <c r="C371" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>373</v>
+      </c>
+      <c r="C372" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>374</v>
+      </c>
+      <c r="C373" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+      <c r="C374" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>376</v>
+      </c>
+      <c r="C375" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>377</v>
+      </c>
+      <c r="C376" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>378</v>
+      </c>
+      <c r="C377" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>379</v>
+      </c>
+      <c r="C378" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>380</v>
+      </c>
+      <c r="C379" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>381</v>
+      </c>
+      <c r="C380" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>382</v>
+      </c>
+      <c r="C381" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>383</v>
+      </c>
+      <c r="C382" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>384</v>
+      </c>
+      <c r="C383" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>385</v>
+      </c>
+      <c r="C384" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+      <c r="C385" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>387</v>
+      </c>
+      <c r="C386" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>388</v>
+      </c>
+      <c r="C387" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>389</v>
+      </c>
+      <c r="C388" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>390</v>
+      </c>
+      <c r="C389" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>391</v>
+      </c>
+      <c r="C390" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>392</v>
+      </c>
+      <c r="C391" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>393</v>
+      </c>
+      <c r="C392" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>394</v>
+      </c>
+      <c r="C393" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>395</v>
+      </c>
+      <c r="C394" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>396</v>
+      </c>
+      <c r="C395" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>397</v>
+      </c>
+      <c r="C396" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>398</v>
+      </c>
+      <c r="C397" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>399</v>
+      </c>
+      <c r="C398" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>400</v>
+      </c>
+      <c r="C399" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>401</v>
+      </c>
+      <c r="C400" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>402</v>
+      </c>
+      <c r="C401" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>403</v>
+      </c>
+      <c r="C402" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>404</v>
+      </c>
+      <c r="C403" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>405</v>
+      </c>
+      <c r="C404" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>406</v>
+      </c>
+      <c r="C405" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>407</v>
+      </c>
+      <c r="C406" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>408</v>
+      </c>
+      <c r="C407" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>409</v>
+      </c>
+      <c r="C408" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>413</v>
+      </c>
+      <c r="C412" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>414</v>
+      </c>
+      <c r="C413" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>415</v>
+      </c>
+      <c r="C414" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>416</v>
+      </c>
+      <c r="C415" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>417</v>
+      </c>
+      <c r="C416" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>418</v>
+      </c>
+      <c r="C417" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>419</v>
+      </c>
+      <c r="C418" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>420</v>
+      </c>
+      <c r="C419" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>424</v>
+      </c>
+      <c r="C423" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>425</v>
+      </c>
+      <c r="C424" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>426</v>
+      </c>
+      <c r="C425" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>428</v>
+      </c>
+      <c r="C427" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>429</v>
+      </c>
+      <c r="C428" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>430</v>
+      </c>
+      <c r="C429" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>431</v>
+      </c>
+      <c r="C430" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>432</v>
+      </c>
+      <c r="C431" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>433</v>
+      </c>
+      <c r="C432" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>434</v>
+      </c>
+      <c r="C433" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>435</v>
+      </c>
+      <c r="C434" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>436</v>
+      </c>
+      <c r="C435" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>437</v>
+      </c>
+      <c r="C436" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>438</v>
+      </c>
+      <c r="C437" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
